--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Conservative" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Aggressive" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +462,242 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MSR - No costs</t>
+          <t>CVAR - No costs</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MSR - With costs</t>
+          <t>CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Omega denum. - No costs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Omega denum. - With costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Omega denum. synth - No costs</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Omega denum. synth - With costs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. - No costs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. - With costs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. synth - No costs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. synth - With costs</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin - No costs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin - With costs</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin - No costs</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin - With costs</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin synth. - No costs</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin synth. - With costs</t>
         </is>
       </c>
     </row>
@@ -492,10 +723,148 @@
         <v>0.05636875048830681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09048622096408598</v>
+        <v>0.06695885754874564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04281234355859342</v>
+        <v>0.06321119010299214</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06474864412991455</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.06073028485893994</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06635623267305446</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.05645993002253635</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.06366988760934755</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.05969601697687943</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.06213179704282012</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.05799664894799927</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.06633079457500246</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.05780155707146162</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06620703597255373</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.06296691876697436</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.06621276215891791</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.06344151457134162</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.06775926992461367</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.06025394494932002</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.06453079014587138</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0615216625318884</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.06438044500901685</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.06194095876149608</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.06687556675056272</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.06168728856930805</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0674525717005785</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0588267797500337</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.06851036172856406</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.06045881754173821</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06415959975156094</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.05372313242950932</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.06700297401040078</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.05722636059233888</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.06483140073696703</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0562410347910598</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.06844313636011368</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05686069052837128</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.06747357641388807</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.06062933119485314</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.06974995143841145</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.06331553989855099</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.06454505706767111</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.05524304310188755</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0667543370236634</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.05878556170201099</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.06648270346025908</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.05906545900110438</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.06819210439603918</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.05932828882568675</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +889,148 @@
         <v>0.06669694378703539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1008865102565033</v>
+        <v>0.08275600785723559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04289214058796988</v>
+        <v>0.07616210790152332</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07652363662261299</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.07013559032659375</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08314694127060565</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.06588454389756243</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0768738204038224</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.07054388265700232</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.07313254126864152</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.06669177376204347</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08088583170161183</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06716080437854419</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0819558367737479</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.07625691629754575</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.07823945684632244</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.07399199943327311</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.08523137860388816</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.07241248657877972</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07823065335000916</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.07348551223663195</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07679714781014506</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07306470187008353</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.08047869009491232</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07252854363160557</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07913705447605919</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.06624688732776661</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08029594352580399</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.06835840134305494</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.07659207650953145</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.06013835039295518</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08182562671025628</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.06606061319600101</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.07792450207817991</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.064224852524063</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.08514819749643124</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.065923703801784</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.07943394020280209</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.06915819232629086</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.08180493818255535</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.07239733435548784</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0769886135315811</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.06241605881490499</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08128298450093385</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.06834003197825757</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.08021197082112877</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.06844447943275095</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.08462827126321565</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.06992679043094226</v>
       </c>
     </row>
     <row r="4">
@@ -548,10 +1055,148 @@
         <v>0.03239523271656812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04635926447419554</v>
+        <v>0.03430330156151285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04674845873139948</v>
+        <v>0.03474366819625293</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03691792969698193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0372511189117369</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.03313946430072506</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03373627663359698</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.03477673431030782</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.03463599370495189</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.03618925855690634</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.03618513689701579</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03505045801690416</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.0350542261360682</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.03392516852649528</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.03423914367984848</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.03745456598218502</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.03754365591532028</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.03337405912366239</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.03352689171186757</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0348147524181084</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03467026184149988</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.03602007613102816</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.03591814935020964</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03623277495406624</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03608268431972391</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03844323032242835</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.03882606008467326</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.03884192578346975</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.03921363932089478</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.03587177099623561</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.03596761812633917</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03517646940541387</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.03531359604671216</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.03559253238515769</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.03573853739750418</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0343417002453444</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.03464180589147725</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.03816684041537009</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0384001331317497</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.03912862073792248</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.03930416400370738</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0360891117821031</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.03615701147008575</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.03530687564368002</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.03560034602867043</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.03590223040614099</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.03606406209610364</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.03442935127967104</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.03465915306502813</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +1221,148 @@
         <v>0.09950272631738391</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1060569278364601</v>
+        <v>0.09415936508721523</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2492855966251572</v>
+        <v>0.0963954712164433</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1143676396755364</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1153442466050349</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.106304293606713</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1082603464732573</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1272222067587288</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1309479121640124</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1278715723806435</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1312174664163523</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1213705504887493</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1322096814193982</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.09269335105271286</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.09470210025302163</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1116363968333093</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1123975930793683</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.08652689378324728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.08868188960062955</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1125774678342902</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1146369131230596</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1201564200674133</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1215730473109411</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1324424681215092</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1341680812854204</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.07464036742924347</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.08386840497707702</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07943977519908663</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.08411828676820036</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.08098700175802009</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.08993929832493062</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.05872073236452136</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.06747595775248655</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.06327968181018197</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.07382035294609737</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0517989852878865</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05897915669090015</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.07994858300911538</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.0880956499096047</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.08571014294221609</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.09138269721315596</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.07518431113699373</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.082441031844359</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.05562461585844496</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06348076113671323</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.05735000507870727</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0649677327089364</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.05187900690962131</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.05888352629423944</v>
       </c>
     </row>
     <row r="6">
@@ -604,10 +1387,148 @@
         <v>0.05469134750464364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05663656315061211</v>
+        <v>0.04492404845963597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.060780642682189</v>
+        <v>0.04614048166376553</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05368638343389657</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05433210740825254</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.04875472538176546</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04971623144676868</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04090025055380214</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.04095900301072041</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04618877421056979</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.04626059638554295</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04695005816445811</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04759899362262675</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.0457368029894516</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0467363734874894</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05592986960081654</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.05611322706080618</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04253481922767363</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0437177636324009</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04358165460808251</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.04366232085785453</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04687445194410098</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.04694056417422485</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.05154544251543352</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.05169747477796063</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04802016620199821</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.04865489839656858</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04802016620198193</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.04864943185690725</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.04802016620198638</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.04863753835767449</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.02819514161917943</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0294590562204613</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.02803595554105226</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.02955057456192548</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.02705853087693673</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.02821797369125963</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.04802016620199284</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.04871236647222921</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.04844833971393503</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.04932851087939133</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.04802016620199451</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.04869315058936893</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.02821228362034443</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0294845612895942</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.02962938890960983</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.03091130651665848</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0270585312935967</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.02821797411882143</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +1553,148 @@
         <v>0.09197556049071907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09766153435465268</v>
+        <v>0.08088570093173948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2739553467247042</v>
+        <v>0.08596300160112007</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1009561020107799</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1054672438089822</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.08878711890512607</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.09246353879374736</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1290350333105403</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1328234350687487</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1292475967226089</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.1330753269608766</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1235655128646844</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1359803853980809</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.07925730812119491</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.08394809829371974</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.09820906194017942</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1024194888112999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.07229915727720641</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.07965350550831363</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1126441373456121</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1150160467009419</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1205592108368351</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1222305065295953</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1351514183028661</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1371771598199603</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07159904567503698</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.07822189988269927</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.07307364862893319</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.07781791884694754</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.07345619756231327</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.08073372228253874</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.05639284393632101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.06252150558625587</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.06224146243096929</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.07337192632208563</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.04995832427265049</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.05688585718925363</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0734251049522659</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.07935639324444178</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07529440857828544</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.08041784680773639</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.07133851541418572</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.07672924271604092</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0551098377660096</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.06395760835797326</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.05666540281704147</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.06588028411789325</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.04747101715156476</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.05547208949047092</v>
       </c>
     </row>
     <row r="8">
@@ -660,10 +1719,148 @@
         <v>0.4304108698406504</v>
       </c>
       <c r="G8" t="n">
-        <v>1.036701753427496</v>
+        <v>0.7151896825054539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008275211055357412</v>
+        <v>0.5982586464245429</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6046697124422189</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4913891232699088</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.7221221882108834</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4160044091078337</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6108795962182191</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4986294583582813</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5445346943418092</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.4303191886833793</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6820254493506182</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4386366087700438</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7010000778007075</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.5999399039581013</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6350967188927973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5597756495175865</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7590859605858808</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5317658107545598</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6349406046126351</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5507940038962176</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6095199447406537</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5433316837996762</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.674805520291522</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5338238752569894</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6510140093481921</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.4224299225362231</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6715648363549154</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.4598738514956152</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6058833715726858</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3141059325570855</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6986910349376829</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.4191266835776831</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.6295115587288755</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.3865727475446767</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.7576108922435307</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.4166988400522236</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.6562787473422238</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.4740567158014241</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.6983241608578051</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.5314971131430781</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.6129152472675142</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.3544970224216022</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.6890682447553207</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.4595481036267771</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.6700757304500428</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.4614002926426786</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.748390929316602</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.4876864301298702</v>
       </c>
     </row>
     <row r="9">
@@ -688,10 +1885,148 @@
         <v>0.1401294296977708</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4531597487164368</v>
+        <v>0.2605515375973824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001551848031945046</v>
+        <v>0.2156294237126781</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1951876771888221</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.1586970759412156</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2251154837217679</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1296360143270439</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1669865501826907</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1318885234242577</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.15411014723492</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.1186668145421559</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.196961324494775</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1163006121057574</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2565615063690082</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.2169057340440612</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2130781056858868</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1869793097831104</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.292785036199233</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2010382822640602</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1963563435476371</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1665796104899541</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1827197814367362</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1605246310516832</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1846090374278785</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1435646853460871</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3353022280902475</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1955598125234179</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3283603392269613</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.2143805828494002</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.2683654053575356</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1256140802056853</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4185486594709417</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.219350282519184</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.3540774842721063</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.1871508878461919</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5022810006689384</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.2447508771267334</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.3133024410820861</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2066372291645927</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.3188007895489637</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.2285996183035087</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2942045559383859</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.155475406106118</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.437375547716099</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.2577170029625076</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4194805777464969</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.2561266664418644</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.496667452498636</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2870547960247061</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +2051,148 @@
         <v>0.4882569886620911</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3674618522059612</v>
+        <v>0.536469699503762</v>
       </c>
       <c r="H10" t="n">
-        <v>0.365271190781277</v>
+        <v>0.5341223780602828</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.519390806571452</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5184992488839966</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5535658856193555</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.546271060586925</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07778238052109832</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.07494346265080587</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.06836432034916717</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.06490807204964999</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.06803101341024309</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.06379575435816232</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.558454482756223</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5563759713666752</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5621172812001807</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5640860544647807</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6167866601298613</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.6133122972762852</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.06604942894236066</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0638963946049933</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.06758866404387376</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.06632198341154583</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.07384332045643605</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.07146826844739751</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4125064832882382</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4181081980273664</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3937780205781045</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3966582728603117</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3906238589383526</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.389195151585924</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.03392766190243712</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.03433283404196985</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03811651463470855</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0386714380690435</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.03240148037957835</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.03374003892481947</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4173491830590993</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4229950549882189</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4198855168388086</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4241629176450307</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3939240967617098</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3939074643170368</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.03703821724933642</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.03761266481189485</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.03530874449369925</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.03630046467661652</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.03132125457100143</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.03270628336705328</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +2217,148 @@
         <v>0.3793591077210302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4217011574688558</v>
+        <v>0.3774782903158234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4217011574688558</v>
+        <v>0.3774782903158234</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3805026795179351</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3805026795179351</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3927447199451526</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3927447199451526</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4023042499046477</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4023042499046477</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.382822957514902</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.382822957514902</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.4332481655394386</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.4332481655394386</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.3694757054632264</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3694757054632264</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.3840654324964717</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3840654324964717</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4092406993485928</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4092406993485928</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.4148085727561674</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.4148085727561674</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.4065285810794912</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.4065285810794912</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.4483918192208907</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4483918192208907</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.3108121211305125</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.3108121211305125</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3042531863626383</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3042531863626383</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3061637949734426</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.3061637949734426</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.303101135915119</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.303101135915119</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.2897522666142829</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.2897522666142829</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.314221522503437</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.314221522503437</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3085843965878911</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.3085843965878911</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.3164584914698191</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3164584914698191</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3113881471176029</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.3113881471176029</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.3067344246288296</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3067344246288296</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.3024221271413098</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.3024221271413098</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.3233105443212814</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.3233105443212814</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +2383,148 @@
         <v>0.2223989281022662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2339236433475347</v>
+        <v>0.2169835055494956</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2339236433475347</v>
+        <v>0.2169835055494956</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2146205699109035</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2146205699109035</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2415598577997207</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2415598577997207</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2657146995463869</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2657146995463869</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2693667108344742</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2693667108344742</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.267647388434876</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.267647388434876</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2179083097872535</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2179083097872535</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2138796915054648</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2138796915054648</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.2424891188997595</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2424891188997595</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2597554005250952</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2597554005250952</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2643418408179718</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2643418408179718</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2658801354382527</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2658801354382527</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1942772090815312</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1942772090815312</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.19172344430971</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.19172344430971</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1940225850375645</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1940225850375645</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.2002359424769645</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.2002359424769645</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2035377795095088</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2035377795095088</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.1991680532747877</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1991680532747877</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.1952624433946395</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.1952624433946395</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1927939512457873</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1927939512457873</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.1943103801249252</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.1943103801249252</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.2014915625443094</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.2014915625443094</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.2048515029264103</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.2048515029264103</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.2001382508760675</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.2001382508760675</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +2549,148 @@
         <v>0.6987538827527838</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6061863180623278</v>
+        <v>0.7324409187803218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6043766960938161</v>
+        <v>0.7308367656736235</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.7206877316643123</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7200689195375651</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7440200841505257</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7391015225169852</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2788949273850248</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2737580366871553</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2614657154373536</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2547706263477997</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2608275549290052</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2525782143379795</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.747298121740061</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.7459061411241199</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7497448107190743</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.75105662533845</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7853576638257639</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7831425778721812</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2570008345168567</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.2527773617335882</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.25997819917038</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.2575305485016204</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2717412748487725</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.2673354979186221</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.6422666761464731</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.6466128656525216</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.6275173468344158</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.6298081238443272</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.6249990871500155</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.6238550725817047</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.184194630492957</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1852912141521282</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1952345118945635</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.1966505481025757</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.180004112118524</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.1836846180953088</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.646025682971737</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.6503807000428432</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.6479857381446052</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.6512779112214927</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.6276337281900247</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6276204779299643</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1924531559869483</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.1939398484373308</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1879062119614442</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1905268082885357</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1769781189045742</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.1808487859153428</v>
       </c>
     </row>
     <row r="14">
@@ -828,10 +2715,2592 @@
         <v>28.71743374545318</v>
       </c>
       <c r="G14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="J14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="K14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="L14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="M14" t="n">
+        <v>37.51262979636412</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.51262979636412</v>
+      </c>
+      <c r="O14" t="n">
+        <v>39.0896999505884</v>
+      </c>
+      <c r="P14" t="n">
+        <v>39.0896999505884</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>80.48814649249684</v>
+      </c>
+      <c r="R14" t="n">
+        <v>80.48814649249684</v>
+      </c>
+      <c r="S14" t="n">
+        <v>30.59461280487578</v>
+      </c>
+      <c r="T14" t="n">
+        <v>30.59461280487578</v>
+      </c>
+      <c r="U14" t="n">
+        <v>26.16192471333554</v>
+      </c>
+      <c r="V14" t="n">
+        <v>26.16192471333554</v>
+      </c>
+      <c r="W14" t="n">
+        <v>70.90422575071688</v>
+      </c>
+      <c r="X14" t="n">
+        <v>70.90422575071688</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>28.37271055720311</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28.37271055720311</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>22.99895748465328</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>22.99895748465328</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>48.86683150086641</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>48.86683150086641</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>81.55049591214879</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81.55049591214879</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>76.03319420518046</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>76.03319420518046</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>99.02785030475852</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>99.02785030475852</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>92.25557685374301</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>92.25557685374301</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>81.17220054665233</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>81.17220054665233</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>109.2456684804866</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>109.2456684804866</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>64.6563424050708</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>64.6563424050708</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>60.65505215688275</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>60.65505215688275</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>88.19057748127815</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>88.19057748127815</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>75.15351948440511</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>75.15351948440511</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>69.95174418680006</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>69.95174418680006</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>83.52338911910857</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>83.52338911910857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BB14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FoF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EW - No costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EW - With costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MSR - No costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSR - With costs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio - No costs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio - With costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio synth.- No costs</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio synth.- With costs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio - No costs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio - With costs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio synth.- No costs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio synth.- With costs</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR Risk - No costs</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR Risk - With costs</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR Risk - No costs</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR Risk - With costs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax - No costs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax - With costs</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax - No costs</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax - With costs</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax synth. - No costs</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax synth. - With costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04934122451384315</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.07511285024057157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07446299966633285</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09048622096408598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04281234355859342</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.07798306381709619</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03916420041440416</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07248667530731501</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.03690580701796131</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06846526081957172</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.04784680267269592</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.07183881920067825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.02650364274943184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07631855983476132</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03145341656254019</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07063505878935605</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04915008364585627</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06953619465969463</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05131380547233277</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07080431552071298</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.05205555930466055</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.07295112782925806</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.05706597593081297</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.07437536720106119</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.05686687487829634</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.07217831079151016</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.05297009634938643</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.07079984135163042</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.05473417098243316</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.07586569279508426</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.04673233277863331</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.07093409694165653</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.04380499536493976</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06963820037747115</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.05568861111294732</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.074973990710409</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.04094657231399679</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.07338026923286911</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.03961835209930609</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.07116847144993321</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05520539854830608</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.06822674444731303</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.05279903685750997</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0656663003213509</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.05010510381311439</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.07033123614637127</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.05787462003956323</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.07115552764719868</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.05561031665554395</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.06945375425169109</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.05375670879015293</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.07077569452836374</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.05695350234325258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>M squared</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.04934122451384315</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07811978622012136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07743346739872256</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1008865102565033</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04289214058796988</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.08844667140905069</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03829555421275314</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07829719358417983</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.035955920658406</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07346892209824178</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.04889327672913266</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0836346734090796</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02024023136106483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.08855230084086896</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02759193866968609</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.07984764825591087</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.05133528843596941</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.07432659681268705</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.05278267106445242</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.07707130044957161</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05409372899253437</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.08017843815104769</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.06033620260677255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.08192266700893938</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06002051584955091</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07777301294526676</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0548754223842428</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07694576013958243</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.05734755905913208</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08803365267948055</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.04820718805481203</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08049537905172693</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.04425225997973924</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08067022198364936</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.06106710446957679</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08914758478669663</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.04034034370808015</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.08670661271927782</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.03847142111643898</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.08537976116966503</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06145247575672601</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.07548049306314555</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.05555756105695724</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.07279630550434071</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.05234669446162521</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.07841409089462403</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.06226563253857142</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08278552298127356</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.06068912138529527</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.08020999810398233</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.05809493350087132</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.08089395422567336</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.06197678494379074</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.05639135833150057</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0516408737109758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05160648574832554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04635926447419554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04674845873139948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04356993503018398</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.04453060808782261</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04725705504243226</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04811176851273815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04730205219343551</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04726735691315499</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04024970762093179</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04047077437051613</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.04143525659442759</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04171153043204787</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.04250892982647207</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.04256089180137527</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0479233986582538</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04839388034992367</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.04619088126960968</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.04654110078927363</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.04559596702549934</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.04609514453047053</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0456158416428561</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0462840642836615</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.04746589964662706</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.04776127733619481</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0463515553631312</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.04651521415572296</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0413465122197102</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.04200646752637717</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.04222862495389714</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.04258455060578146</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.04012478632439787</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.04012127883583846</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03928450065732295</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.03999632098337191</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.03942045587985161</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.04003428546967362</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.03773444918663441</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.03787654061317734</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.04401656777144361</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.04454578361254595</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.04315263974266992</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.04365033031621379</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.04372614908182246</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.04391084508743305</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.04014183648973268</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.04070988215384854</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.04033823934278739</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.04077890934871746</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.04155888652178127</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.04190281766027548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2220354084037478</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.152312370186105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1531870901193021</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1060569278364601</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2492855966251572</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1049889349555794</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2160688388403534</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1239450333778075</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2084837940113208</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1286414685093911</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1725324567999957</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08243161836502075</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2023401083002398</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08862247340158368</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1510274959932613</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1144548524562986</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1428706593114025</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1425731592990609</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1436808565084627</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1443982701888145</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1469617299878274</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1287202574715037</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1317173821875385</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1022724274660187</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1308276857642232</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1365854343599385</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1586614440542997</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1527176372871303</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1630019285346921</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.08093924929351437</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.09174294140174331</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07981556745928395</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.09109314045311287</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.07461687657785605</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.08041333391810657</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0617113676137913</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.1025049702755594</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.06251381197335058</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.09653828594213711</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.05428122685667204</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.06804685844541485</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.09475719891168126</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.1040713050362363</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.09126455375334598</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1035713707604847</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.09464526936562626</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.105896371019847</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.05931517727853682</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06568507615538663</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.058495403478756</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.07042137608959068</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.05924177512428287</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.07403398648264214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CVaR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.07211936324133239</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06358609510140846</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06366393747415097</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05663656315061211</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.060780642682189</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05663656314976539</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06076065697738244</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07748465279634546</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.08146627715198362</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05940781452605793</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06109338845926476</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04939008795836215</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05313757199282668</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05048106827522686</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0549305612485852</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.05395099724520943</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.05586547750117816</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.06194188798497541</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.06449382566804547</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05481086538612936</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.05537763139501727</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.05589626747320792</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.05750226729782801</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04905134617444182</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.05166416079654499</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.06042077845918228</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.06092576892235912</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.06335694232307959</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.06400239102501032</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04802016614455199</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.04897059700130525</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.05221985280040061</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.05271022220173616</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.04802016620452552</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.04850018264920495</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.02954605881607701</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.03214457842008717</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.03209518450832354</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.03469417059737672</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.02750679046989808</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.02892333925563347</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05196700309961114</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.05380897433866978</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.04925471325049845</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05090498473599927</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.05035068424796455</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0516469081487764</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0314194553341518</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.03266210282179829</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.03309215322466358</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.03456342232119142</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.03061639896751215</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.03207949167923013</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CDaR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2422591459587894</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1604704890428219</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1614094894495695</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09766153435465268</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2739553467247042</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.09299025208704255</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2285944796822431</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1203048575131326</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2211003653838322</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09196459514394932</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1318487156201701</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.08256268506240631</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2047286031507463</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0871388694601934</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.148031018933353</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1192040872838295</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1492460168571559</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.149790487933</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1509875522939804</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1516532263024275</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1545076798912185</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.09877573396454364</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1075631101895325</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1053801239561301</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1341410430683313</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1426211637915022</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1653044667754222</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1608133641501611</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1733404226975557</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07427099871281419</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.08971566011584343</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.07304487549759693</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.08325300673446838</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0699695601813386</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.07614839852407697</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.05513696049592613</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.09758205825370229</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.05607944093843856</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.09334510605837014</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.05505316100094748</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.06781983506362017</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.07984633040516281</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.09262254804583965</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07735461235653927</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.08841526394111338</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.07991340463527326</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.09039502168794251</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.05107614181185827</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.06462644714822224</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.05671528422148275</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.07103833226387242</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.05953555398357831</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.07534589603741797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1226381935528152</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6329745741220049</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6208039358947036</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.036701753427496</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.008275211055357412</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8161034345445893</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.07323703676451936</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6361205767952435</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1147262582263156</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5504998074292227</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.11469463982465</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7307712463805195</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.3934159327142998</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8179765838168117</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.2630465370100195</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6636151205977988</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1579993549280034</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5657091363019795</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1836661001759981</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6143815520425198</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2069153703988362</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6694810884503952</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3176144881172173</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7004118712777591</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3120163474346351</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.626825169583528</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2207773062492408</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.612155318915607</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.2646162338444344</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.8087792852105341</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.1025280828446354</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6751014691267407</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.03239449869112963</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6782019961772615</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3305757269387327</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.8285328811545748</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.03697634796701642</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.785246602199041</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.07011835140404282</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.7617172603127751</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.3374095982720633</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.5861714249327168</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.2328738170072268</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5385721537283302</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.1759348339726858</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.6381935417654612</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.3518294811389596</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.7157130805031481</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.3238728721846492</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.6700407478355994</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.2778695844260209</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.6821694878044144</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.3467072850556047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Calmar</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.03114698852531302</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2146073887797402</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2091397482993091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4531597487164368</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001551848031945046</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3386792487804747</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.01509375344995459</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.242536423541914</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.02647535845312463</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2024212792750599</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03142198619997642</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3568209576373081</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.07868853872026774</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3824432825870241</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.07264951035159714</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2464689612355987</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0470677008294673</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1901529333915432</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.06186151372038089</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1965316155624755</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06552773371257783</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2371471144698218</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1111507493664693</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3123997131641226</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.110384775193869</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2178330415308066</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.06645978937201187</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.185796163819666</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.07551248563132824</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.4131518749048416</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.04694467516247572</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3571810318848025</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.0151438973560406</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3646991328161356</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1649368365994641</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.5274311974096748</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.01442776753269557</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.4951670368459788</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.0290779773990899</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5295197422444</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1878104095353545</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.2722880641003618</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.09967729969197189</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2546531941424237</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.07414803493134753</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2948456498389743</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.14588913382678</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.4843623296649272</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.2007278857114375</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4620579130705308</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1609059524718578</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.4785508920488901</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.1962343625867069</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>R squared</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8244346587061334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.824613583768536</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3674618522059612</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.365271190781277</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4076293411010234</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4199027069838933</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4995012972617772</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5028079067912128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5069561373835163</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5049264193526888</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07002104358354522</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06933920418208017</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.06677166131705892</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.06562464792542788</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.07257970040605721</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.07507331522251603</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.7012114181794631</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6869578095640227</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6963874320866501</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6868931081817796</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5466445202471468</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5459823606836356</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.08408594786328072</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.08363094039275998</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.07949427394238373</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0797349818745976</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.07136432862359221</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.06515992277438643</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3192966479807463</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3265774968655535</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3374092191493234</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3490254365369829</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.340505290172233</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3378851698340855</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.03545714813703749</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0365028916446215</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03915479577023462</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.04067383006363123</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.03513293381435534</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.03843312874322502</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4243704511113188</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4283173554603152</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4220570246212916</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4264442350492453</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.4735132843149955</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.4755371097784107</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.03280059753700615</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.03454302496907291</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.03538454249827316</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.03574880969032057</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.03945510825403897</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.04208415369525242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Corr. Stocks</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.6478348465883126</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5554946431602711</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5554946431602711</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4217011574688558</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4217011574688558</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4297621156472561</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4297621156472561</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4427743625166369</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4427743625166369</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4365294995500955</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4365294995500955</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.442539508309789</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.442539508309789</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.4888583360639568</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4888583360639568</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4810265579061373</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4810265579061373</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4536901123256525</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4536901123256525</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.5149375119816944</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.5149375119816944</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.50612657144462</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.50612657144462</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.4718294782174679</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4718294782174679</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.31149627623441</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.31149627623441</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3081621517483313</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3081621517483313</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3153311390099689</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.3153311390099689</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.3166966210472908</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.3166966210472908</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.3130172819278208</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.3130172819278208</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.3218659178479311</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.3218659178479311</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3280598997839189</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.3280598997839189</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.3263652410937374</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3263652410937374</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3500227996673361</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.3500227996673361</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.3407167553674957</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3407167553674957</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.3394405094527765</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.3394405094527765</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.370574886630037</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.370574886630037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Corr. Bonds</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3608590741259927</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2559630748399553</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2559630748399553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2339236433475347</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2339236433475347</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2263605968935193</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2263605968935193</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2673111616190468</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2673111616190468</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2673006353269929</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2673006353269929</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2592314717855644</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2592314717855644</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2502749442007013</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2502749442007013</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2507097513525957</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2507097513525957</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.2415003410365985</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2415003410365985</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2589131324192354</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2589131324192354</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2610116893342596</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2610116893342596</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2646443917673662</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2646443917673662</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1926902109265513</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1926902109265513</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1920451407094667</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1920451407094667</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1867326101877463</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1867326101877463</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.2000136010885293</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.2000136010885293</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2005523949849569</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2005523949849569</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.1928469038403617</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1928469038403617</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.2015182492504485</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.2015182492504485</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1997559782307998</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1997559782307998</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.1865245837502799</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.1865245837502799</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.2007687469740302</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.2007687469740302</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.2006484030834543</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.2006484030834543</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.2069524543249557</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.2069524543249557</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Corr. FoF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9079838427560999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9080823661808084</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6061863180623278</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6043766960938161</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6384585664716415</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.647999002301619</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.706754057124384</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7090894913839947</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7120085233924635</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7105817471288497</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2646148967528955</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2633233832801032</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2584021310226736</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2561730819688675</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2694061996429502</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2739951007272142</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8373836744166099</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8288291799665496</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8344983116140203</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8287901472518721</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7393541237101116</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7389061920728744</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2899757711659382</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.2891901457393729</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.2819472892978111</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.2823738335515485</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2671410275932772</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.255264417368317</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5650634017353684</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5714695939991503</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.5808693649602493</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.5907837476919819</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.5835283113716362</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.5812789088157986</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1883006854396376</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1910572993754008</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1978757078830918</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.2016775398095461</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.1874378131924165</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.1960436909039033</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.651437219623901</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.6544595903952476</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.6496591603458629</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.6530269788065771</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.6881230153940466</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6895919879018396</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1811093524283222</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.185857539446407</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1881077948897201</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1890735562957458</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1986330995932929</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.2051442265706064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.08276406543348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.08276406543348</v>
+      </c>
+      <c r="E14" t="n">
         <v>449.4252735672196</v>
       </c>
+      <c r="F14" t="n">
+        <v>449.4252735672196</v>
+      </c>
+      <c r="G14" t="n">
+        <v>368.4890547671815</v>
+      </c>
       <c r="H14" t="n">
-        <v>449.4252735672196</v>
+        <v>368.4890547671815</v>
+      </c>
+      <c r="I14" t="n">
+        <v>338.8852096233285</v>
+      </c>
+      <c r="J14" t="n">
+        <v>338.8852096233285</v>
+      </c>
+      <c r="K14" t="n">
+        <v>195.7782104719494</v>
+      </c>
+      <c r="L14" t="n">
+        <v>195.7782104719494</v>
+      </c>
+      <c r="M14" t="n">
+        <v>432.6905959790688</v>
+      </c>
+      <c r="N14" t="n">
+        <v>432.6905959790688</v>
+      </c>
+      <c r="O14" t="n">
+        <v>426.4464222083702</v>
+      </c>
+      <c r="P14" t="n">
+        <v>426.4464222083702</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>203.1342588063965</v>
+      </c>
+      <c r="R14" t="n">
+        <v>203.1342588063965</v>
+      </c>
+      <c r="S14" t="n">
+        <v>172.6863771265313</v>
+      </c>
+      <c r="T14" t="n">
+        <v>172.6863771265313</v>
+      </c>
+      <c r="U14" t="n">
+        <v>177.5205604894916</v>
+      </c>
+      <c r="V14" t="n">
+        <v>177.5205604894916</v>
+      </c>
+      <c r="W14" t="n">
+        <v>149.9425093750914</v>
+      </c>
+      <c r="X14" t="n">
+        <v>149.9425093750914</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>164.7201374457903</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>164.7201374457903</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>181.1868482658087</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>181.1868482658087</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>151.5176318923575</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>151.5176318923575</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>275.8861643826874</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>275.8861643826874</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>257.779539793525</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>257.779539793525</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>131.9382797686039</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>131.9382797686039</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>322.2727549616943</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>322.2727549616943</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>320.1631924126655</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>320.1631924126655</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>150.4954778485329</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>150.4954778485329</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>146.1902823092215</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>146.1902823092215</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>147.7908957250765</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>147.7908957250765</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>117.6709976346168</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>117.6709976346168</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>146.5311041286916</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>146.5311041286916</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>148.1894726021721</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>148.1894726021721</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>130.235209867425</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>130.235209867425</v>
       </c>
     </row>
   </sheetData>

--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -573,13 +573,13 @@
         <v>0.0987903671160225</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09950272631738391</v>
+        <v>0.09950272631738398</v>
       </c>
       <c r="G5" t="n">
         <v>0.1060569278364601</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2492855966251572</v>
+        <v>0.2492855966251576</v>
       </c>
     </row>
     <row r="6">
@@ -685,13 +685,13 @@
         <v>0.1717476017549357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1401294296977708</v>
+        <v>0.1401294296977707</v>
       </c>
       <c r="G9" t="n">
         <v>0.4531597487164368</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001551848031945046</v>
+        <v>0.001551848031945043</v>
       </c>
     </row>
     <row r="10">

--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="P1 - Historical" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EW - No costs</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MVP - No costs</t>
+          <t>MVP</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,12 +461,72 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MSR - No costs</t>
+          <t>MSR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MSR - With costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk CVaR</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk CVaR - With costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal CVaR</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal CVaR - With costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk CDaR</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk CDaR - With costs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal CDaR</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal CDaR - With costs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk Omega</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Min. risk Omega - With costs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Omega</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Optimal Omega - With costs</t>
         </is>
       </c>
     </row>
@@ -477,7 +537,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04934122451384315</v>
+        <v>0.049341</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -496,6 +556,42 @@
       </c>
       <c r="H2" t="n">
         <v>0.04281234355859342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.06695885754874564</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.06321119010299214</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07798306381709619</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.03916420041440416</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.06474864412991455</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.06073028485893994</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07248667530731501</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03690580701796131</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.06635623267305446</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.05645993002253635</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06846526081957172</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.04784680267269592</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +601,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04934122451384315</v>
+        <v>0.049341</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -524,6 +620,42 @@
       </c>
       <c r="H3" t="n">
         <v>0.04289214058796988</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.08275600785723559</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.07616210790152332</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.08844667140905069</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03829555421275314</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.07652363662261299</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.07013559032659375</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.07829719358417983</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.035955920658406</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.08314694127060565</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06588454389756243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.07346892209824178</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.04889327672913266</v>
       </c>
     </row>
     <row r="4">
@@ -533,7 +665,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05639135833150057</v>
+        <v>0.056391</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -552,6 +684,42 @@
       </c>
       <c r="H4" t="n">
         <v>0.04674845873139948</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03430330156151285</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.03474366819625293</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04356993503018398</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04453060808782261</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.03691792969698193</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0372511189117369</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.04725705504243226</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04811176851273815</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.03313946430072506</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.03373627663359698</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.04730205219343551</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04726735691315499</v>
       </c>
     </row>
     <row r="5">
@@ -561,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2220354084037478</v>
+        <v>0.222035</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -580,6 +748,42 @@
       </c>
       <c r="H5" t="n">
         <v>0.2492855966251576</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.09415936508721523</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0963954712164433</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1049889349555794</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2160688388403541</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1143676396755364</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1153442466050348</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1239450333778075</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2084837940113204</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.106304293606713</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1082603464732572</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1286414685093911</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1725324567999956</v>
       </c>
     </row>
     <row r="6">
@@ -589,7 +793,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07211936324133239</v>
+        <v>0.072119</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -608,6 +812,42 @@
       </c>
       <c r="H6" t="n">
         <v>0.060780642682189</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.04492404845963597</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04614048166376553</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05663656314976539</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06076065697738244</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.05368638343389657</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05433210740825254</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.07748465279634546</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.08146627715198362</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04875472538176546</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04971623144676868</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.05940781452605793</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.06109338845926476</v>
       </c>
     </row>
     <row r="7">
@@ -617,7 +857,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2422591459587894</v>
+        <v>0.242259</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -636,6 +876,42 @@
       </c>
       <c r="H7" t="n">
         <v>0.2739553467247042</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08088570093173948</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.08596300160112007</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09299025208704255</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2285944796822431</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1009561020107799</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1054672438089822</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1203048575131326</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2211003653838322</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.08878711890512607</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.09246353879374736</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.09196459514394932</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1318487156201701</v>
       </c>
     </row>
     <row r="8">
@@ -645,7 +921,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1226381935528152</v>
+        <v>0.122638</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -664,6 +940,42 @@
       </c>
       <c r="H8" t="n">
         <v>0.008275211055357412</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.7151896825054539</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5982586464245429</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8161034345445893</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.07323703676451936</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6046697124422189</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4913891232699088</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.6361205767952435</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1147262582263156</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.7221221882108834</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4160044091078337</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5504998074292227</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.11469463982465</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +985,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03114698852531302</v>
+        <v>0.031147</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -692,6 +1004,42 @@
       </c>
       <c r="H9" t="n">
         <v>0.001551848031945043</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2605515375973824</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.2156294237126781</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3386792487804747</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.01509375344995455</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1951876771888221</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1586970759412157</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.242536423541914</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.02647535845312468</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2251154837217679</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.129636014327044</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.2024212792750599</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.03142198619997644</v>
       </c>
     </row>
     <row r="10">
@@ -721,6 +1069,42 @@
       <c r="H10" t="n">
         <v>0.365271190781277</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.536469699503762</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5341223780602828</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4076293411010234</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4199027069838933</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.519390806571452</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.5184992488839966</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.4995012972617772</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.5028079067912128</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5535658856193555</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.546271060586925</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5069561373835163</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.5049264193526888</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -729,7 +1113,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6478348465883126</v>
+        <v>0.647835</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -748,6 +1132,42 @@
       </c>
       <c r="H11" t="n">
         <v>0.4217011574688558</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.3774782903158234</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.3774782903158234</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.3805026795179351</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3805026795179351</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3927447199451526</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3927447199451526</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.4297621156472561</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4297621156472561</v>
       </c>
     </row>
     <row r="12">
@@ -757,7 +1177,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3608590741259927</v>
+        <v>0.360859</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -776,6 +1196,42 @@
       </c>
       <c r="H12" t="n">
         <v>0.2339236433475347</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2169835055494956</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2169835055494956</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2146205699109035</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2146205699109035</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2415598577997207</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2415598577997207</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2263605968935193</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2263605968935193</v>
       </c>
     </row>
     <row r="13">
@@ -805,6 +1261,42 @@
       <c r="H13" t="n">
         <v>0.6043766960938161</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.7324409187803218</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7308367656736235</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6384585664716415</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.647999002301619</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7206877316643123</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.7200689195375651</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.706754057124384</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.7090894913839947</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.7440200841505257</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.7391015225169852</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.7120085233924635</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.7105817471288497</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -832,6 +1324,42 @@
       </c>
       <c r="H14" t="n">
         <v>449.4252735672196</v>
+      </c>
+      <c r="I14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="J14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="K14" t="n">
+        <v>368.4890547671815</v>
+      </c>
+      <c r="L14" t="n">
+        <v>368.4890547671815</v>
+      </c>
+      <c r="M14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="N14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="O14" t="n">
+        <v>338.8852096233285</v>
+      </c>
+      <c r="P14" t="n">
+        <v>338.8852096233285</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="R14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="S14" t="n">
+        <v>195.7782104719494</v>
+      </c>
+      <c r="T14" t="n">
+        <v>195.7782104719494</v>
       </c>
     </row>
   </sheetData>

--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P1 - Historical" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Conservative" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Aggressive" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:BB14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>EW - No costs</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +452,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MVP</t>
+          <t>MVP - No costs</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -461,72 +462,242 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>CVAR - No costs</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MSR - With costs</t>
+          <t>CVAR - With costs</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk CVaR</t>
+          <t>CDAR - No costs</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk CVaR - With costs</t>
+          <t>CDAR - With costs</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Optimal CVaR</t>
+          <t>Omega denum. - No costs</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Optimal CVaR - With costs</t>
+          <t>Omega denum. - With costs</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk CDaR</t>
+          <t>CVAR synth. - No costs</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk CDaR - With costs</t>
+          <t>CVAR synth. - With costs</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Optimal CDaR</t>
+          <t>CDAR synth. - No costs</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Optimal CDaR - With costs</t>
+          <t>CDAR synth. - With costs</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk Omega</t>
+          <t>Omega denum. synth. - No costs</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Min. risk Omega - With costs</t>
+          <t>Omega denum. synth. - With costs</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Optimal Omega</t>
+          <t>Min t - CVAR - No costs</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Optimal Omega - With costs</t>
+          <t>Min t - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. - No costs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. - With costs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. synth - No costs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega denum. synth - With costs</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin - No costs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin - With costs</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamin synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin - No costs</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin - With costs</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin synth. - No costs</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamin synth. - With costs</t>
         </is>
       </c>
     </row>
@@ -552,46 +723,148 @@
         <v>0.05636875048830681</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09048622096408598</v>
+        <v>0.06695885754874564</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04281234355859342</v>
+        <v>0.06321119010299214</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06695885754874564</v>
+        <v>0.06474864412991455</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06321119010299214</v>
+        <v>0.06073028485893994</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07798306381709619</v>
+        <v>0.06635623267305446</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03916420041440416</v>
+        <v>0.05645993002253635</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06474864412991455</v>
+        <v>0.06366988760934755</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06073028485893994</v>
+        <v>0.05969601697687943</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07248667530731501</v>
+        <v>0.06213179704282012</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03690580701796131</v>
+        <v>0.05799664894799927</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06635623267305446</v>
+        <v>0.06633079457500246</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05645993002253635</v>
+        <v>0.05780155707146162</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06846526081957172</v>
+        <v>0.06620703597255373</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04784680267269592</v>
+        <v>0.06296691876697436</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.06621276215891791</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.06344151457134162</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.06775926992461367</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.06025394494932002</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.06453079014587138</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.0615216625318884</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.06438044500901685</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.06194095876149608</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.06687556675056272</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.06168728856930805</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.0674525717005785</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.0588267797500337</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.06851036172856406</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.06045881754173821</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06415959975156094</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.05372313242950932</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.06700297401040078</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.05722636059233888</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.06483140073696703</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.0562410347910598</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.06844313636011368</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05686069052837128</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.06747357641388807</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.06062933119485314</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.06974995143841145</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.06331553989855099</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.06454505706767111</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.05524304310188755</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.0667543370236634</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.05878556170201099</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.06648270346025908</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.05906545900110438</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.06819210439603918</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.05932828882568675</v>
       </c>
     </row>
     <row r="3">
@@ -616,46 +889,148 @@
         <v>0.06669694378703539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1008865102565033</v>
+        <v>0.08275600785723559</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04289214058796988</v>
+        <v>0.07616210790152332</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08275600785723559</v>
+        <v>0.07652363662261299</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07616210790152332</v>
+        <v>0.07013559032659375</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08844667140905069</v>
+        <v>0.08314694127060565</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03829555421275314</v>
+        <v>0.06588454389756243</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07652363662261299</v>
+        <v>0.0768738204038224</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07013559032659375</v>
+        <v>0.07054388265700232</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07829719358417983</v>
+        <v>0.07313254126864152</v>
       </c>
       <c r="P3" t="n">
-        <v>0.035955920658406</v>
+        <v>0.06669177376204347</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08314694127060565</v>
+        <v>0.08088583170161183</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06588454389756243</v>
+        <v>0.06716080437854419</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07346892209824178</v>
+        <v>0.0819558367737479</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04889327672913266</v>
+        <v>0.07625691629754575</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.07823945684632244</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.07399199943327311</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.08523137860388816</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.07241248657877972</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.07823065335000916</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.07348551223663195</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07679714781014506</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.07306470187008353</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.08047869009491232</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.07252854363160557</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.07913705447605919</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.06624688732776661</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08029594352580399</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.06835840134305494</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.07659207650953145</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.06013835039295518</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08182562671025628</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.06606061319600101</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.07792450207817991</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.064224852524063</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.08514819749643124</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.065923703801784</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.07943394020280209</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.06915819232629086</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.08180493818255535</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.07239733435548784</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0769886135315811</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.06241605881490499</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08128298450093385</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.06834003197825757</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.08021197082112877</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.06844447943275095</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.08462827126321565</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.06992679043094226</v>
       </c>
     </row>
     <row r="4">
@@ -680,46 +1055,148 @@
         <v>0.03239523271656812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04635926447419554</v>
+        <v>0.03430330156151285</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04674845873139948</v>
+        <v>0.03474366819625293</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03430330156151285</v>
+        <v>0.03691792969698193</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03474366819625293</v>
+        <v>0.0372511189117369</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04356993503018398</v>
+        <v>0.03313946430072506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04453060808782261</v>
+        <v>0.03373627663359698</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03691792969698193</v>
+        <v>0.03477673431030782</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0372511189117369</v>
+        <v>0.03463599370495189</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04725705504243226</v>
+        <v>0.03618925855690634</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04811176851273815</v>
+        <v>0.03618513689701579</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03313946430072506</v>
+        <v>0.03505045801690416</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03373627663359698</v>
+        <v>0.0350542261360682</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04730205219343551</v>
+        <v>0.03392516852649528</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04726735691315499</v>
+        <v>0.03423914367984848</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.03745456598218502</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.03754365591532028</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.03337405912366239</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.03352689171186757</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0348147524181084</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.03467026184149988</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.03602007613102816</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.03591814935020964</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.03623277495406624</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.03608268431972391</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03844323032242835</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.03882606008467326</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.03884192578346975</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.03921363932089478</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.03587177099623561</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.03596761812633917</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03517646940541387</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.03531359604671216</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.03559253238515769</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.03573853739750418</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.0343417002453444</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.03464180589147725</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.03816684041537009</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.0384001331317497</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.03912862073792248</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.03930416400370738</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0360891117821031</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.03615701147008575</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.03530687564368002</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.03560034602867043</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.03590223040614099</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.03606406209610364</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.03442935127967104</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.03465915306502813</v>
       </c>
     </row>
     <row r="5">
@@ -744,46 +1221,148 @@
         <v>0.09950272631738398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1060569278364601</v>
+        <v>0.09415936508721523</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2492855966251576</v>
+        <v>0.0963954712164433</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09415936508721523</v>
+        <v>0.1143676396755364</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0963954712164433</v>
+        <v>0.1153442466050348</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1049889349555794</v>
+        <v>0.106304293606713</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2160688388403541</v>
+        <v>0.1082603464732572</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1143676396755364</v>
+        <v>0.1272222067587288</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1153442466050348</v>
+        <v>0.1309479121640126</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1239450333778075</v>
+        <v>0.1278715723806435</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2084837940113204</v>
+        <v>0.1312174664163521</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.106304293606713</v>
+        <v>0.1213705504887493</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1082603464732572</v>
+        <v>0.1322096814193981</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1286414685093911</v>
+        <v>0.09269335105271286</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1725324567999956</v>
+        <v>0.09470210025302161</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1116363968333093</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1123975930793683</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.08652689378324728</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.08868188960062942</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1125774678342902</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1146369131230594</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1201564200674133</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1215730473109412</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1324424681215092</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1341680812854199</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.07464036742924347</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.08386840497707718</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07943977519908663</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.08411828676820063</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.08098700175802009</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.08993929832493071</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.05872073236452136</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.06747595775248638</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.06327968181018197</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.07382035294609811</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0517989852878865</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.0589791566909002</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.07994858300911538</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.08809564990960463</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.08571014294221609</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.09138269721315583</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.07518431113699373</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.08244103184435898</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.05562461585844496</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06348076113671312</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.05735000507870727</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.0649677327089364</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.05187900690962131</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0588835262942395</v>
       </c>
     </row>
     <row r="6">
@@ -808,46 +1387,148 @@
         <v>0.05469134750464364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05663656315061211</v>
+        <v>0.04492404845963597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.060780642682189</v>
+        <v>0.04614048166376553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04492404845963597</v>
+        <v>0.05368638343389657</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04614048166376553</v>
+        <v>0.05433210740825254</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05663656314976539</v>
+        <v>0.04875472538176546</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06076065697738244</v>
+        <v>0.04971623144676868</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05368638343389657</v>
+        <v>0.04090025055380214</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05433210740825254</v>
+        <v>0.04095900301072041</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07748465279634546</v>
+        <v>0.04618877421056979</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08146627715198362</v>
+        <v>0.04626059638554295</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04875472538176546</v>
+        <v>0.04695005816445811</v>
       </c>
       <c r="R6" t="n">
-        <v>0.04971623144676868</v>
+        <v>0.04759899362262675</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05940781452605793</v>
+        <v>0.0457368029894516</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06109338845926476</v>
+        <v>0.0467363734874894</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05592986960081654</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.05611322706080618</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.04253481922767363</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.0437177636324009</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04358165460808251</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.04366232085785453</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.04687445194410098</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.04694056417422485</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.05154544251543352</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.05169747477796063</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04802016620199821</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.04865489839656858</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.04802016620198193</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.04864943185690725</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.04802016620198638</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.04863753835767449</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.02819514161917943</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.0294590562204613</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.02803595554105226</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.02955057456192548</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.02705853087693673</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.02821797369125963</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.04802016620199284</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.04871236647222921</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.04844833971393503</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.04932851087939133</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.04802016620199451</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.04869315058936893</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.02821228362034443</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.0294845612895942</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.02962938890960983</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.03091130651665848</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.0270585312935967</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.02821797411882143</v>
       </c>
     </row>
     <row r="7">
@@ -872,46 +1553,148 @@
         <v>0.09197556049071907</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09766153435465268</v>
+        <v>0.08088570093173948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2739553467247042</v>
+        <v>0.08596300160112007</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08088570093173948</v>
+        <v>0.1009561020107799</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08596300160112007</v>
+        <v>0.1054672438089822</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09299025208704255</v>
+        <v>0.08878711890512607</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2285944796822431</v>
+        <v>0.09246353879374736</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1009561020107799</v>
+        <v>0.1290350333105403</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1054672438089822</v>
+        <v>0.1328234350687487</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1203048575131326</v>
+        <v>0.1292475967226089</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2211003653838322</v>
+        <v>0.1330753269608766</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.08878711890512607</v>
+        <v>0.1235655128646844</v>
       </c>
       <c r="R7" t="n">
-        <v>0.09246353879374736</v>
+        <v>0.1359803853980809</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09196459514394932</v>
+        <v>0.07925730812119491</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1318487156201701</v>
+        <v>0.08394809829371974</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.09820906194017942</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1024194888112999</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.07229915727720641</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.07965350550831363</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1126441373456121</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1150160467009419</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1205592108368351</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1222305065295953</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1351514183028661</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1371771598199603</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07159904567503698</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.07822189988269927</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.07307364862893319</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.07781791884694754</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.07345619756231327</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.08073372228253874</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.05639284393632101</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.06252150558625587</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.06224146243096929</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.07337192632208563</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.04995832427265049</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.05688585718925363</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0734251049522659</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.07935639324444178</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07529440857828544</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.08041784680773639</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.07133851541418572</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.07672924271604092</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.0551098377660096</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.06395760835797326</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.05666540281704147</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.06588028411789325</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.04747101715156476</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.05547208949047092</v>
       </c>
     </row>
     <row r="8">
@@ -936,46 +1719,148 @@
         <v>0.4304108698406504</v>
       </c>
       <c r="G8" t="n">
-        <v>1.036701753427496</v>
+        <v>0.7151896825054539</v>
       </c>
       <c r="H8" t="n">
-        <v>0.008275211055357412</v>
+        <v>0.5982586464245429</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7151896825054539</v>
+        <v>0.6046697124422189</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5982586464245429</v>
+        <v>0.4913891232699088</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8161034345445893</v>
+        <v>0.7221221882108834</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.07323703676451936</v>
+        <v>0.4160044091078337</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6046697124422189</v>
+        <v>0.6108795962182191</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4913891232699088</v>
+        <v>0.4986294583582813</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6361205767952435</v>
+        <v>0.5445346943418092</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.1147262582263156</v>
+        <v>0.4303191886833793</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7221221882108834</v>
+        <v>0.6820254493506182</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4160044091078337</v>
+        <v>0.4386366087700438</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5504998074292227</v>
+        <v>0.7010000778007075</v>
       </c>
       <c r="T8" t="n">
-        <v>0.11469463982465</v>
+        <v>0.5999399039581013</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6350967188927973</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.5597756495175865</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.7590859605858808</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5317658107545598</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.6349406046126351</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.5507940038962176</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.6095199447406537</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.5433316837996762</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.674805520291522</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5338238752569894</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.6510140093481921</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.4224299225362231</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6715648363549154</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.4598738514956152</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6058833715726858</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3141059325570855</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.6986910349376829</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.4191266835776831</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.6295115587288755</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.3865727475446767</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.7576108922435307</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.4166988400522236</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.6562787473422238</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.4740567158014241</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.6983241608578051</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.5314971131430781</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.6129152472675142</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.3544970224216022</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.6890682447553207</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.4595481036267771</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.6700757304500428</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.4614002926426786</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.748390929316602</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.4876864301298702</v>
       </c>
     </row>
     <row r="9">
@@ -1000,46 +1885,148 @@
         <v>0.1401294296977707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4531597487164368</v>
+        <v>0.2605515375973824</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001551848031945043</v>
+        <v>0.2156294237126781</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2605515375973824</v>
+        <v>0.1951876771888221</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2156294237126781</v>
+        <v>0.1586970759412157</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3386792487804747</v>
+        <v>0.2251154837217679</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01509375344995455</v>
+        <v>0.129636014327044</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1951876771888221</v>
+        <v>0.1669865501826907</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1586970759412157</v>
+        <v>0.1318885234242576</v>
       </c>
       <c r="O9" t="n">
-        <v>0.242536423541914</v>
+        <v>0.15411014723492</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.02647535845312468</v>
+        <v>0.1186668145421561</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2251154837217679</v>
+        <v>0.196961324494775</v>
       </c>
       <c r="R9" t="n">
-        <v>0.129636014327044</v>
+        <v>0.1163006121057575</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2024212792750599</v>
+        <v>0.2565615063690082</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03142198619997644</v>
+        <v>0.2169057340440612</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2130781056858868</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1869793097831103</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.292785036199233</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.2010382822640605</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.1963563435476371</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1665796104899543</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1827197814367362</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1605246310516831</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1846090374278785</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1435646853460877</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3353022280902475</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.1955598125234175</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3283603392269613</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.2143805828493995</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.2683654053575356</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1256140802056852</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.4185486594709417</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.2193502825191845</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.3540774842721063</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.18715088784619</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5022810006689384</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.2447508771267331</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.3133024410820861</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.2066372291645928</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.3188007895489637</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.228599618303509</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2942045559383859</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.155475406106118</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.437375547716099</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.2577170029625081</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4194805777464969</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.2561266664418644</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.496667452498636</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.2870547960247058</v>
       </c>
     </row>
     <row r="10">
@@ -1064,46 +2051,148 @@
         <v>0.4882569886620911</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3674618522059612</v>
+        <v>0.536469699503762</v>
       </c>
       <c r="H10" t="n">
-        <v>0.365271190781277</v>
+        <v>0.5341223780602828</v>
       </c>
       <c r="I10" t="n">
-        <v>0.536469699503762</v>
+        <v>0.519390806571452</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5341223780602828</v>
+        <v>0.5184992488839966</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4076293411010234</v>
+        <v>0.5535658856193555</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4199027069838933</v>
+        <v>0.546271060586925</v>
       </c>
       <c r="M10" t="n">
-        <v>0.519390806571452</v>
+        <v>0.07778238052109832</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5184992488839966</v>
+        <v>0.07494346265080587</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4995012972617772</v>
+        <v>0.06836432034916717</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5028079067912128</v>
+        <v>0.06490807204964999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5535658856193555</v>
+        <v>0.06803101341024309</v>
       </c>
       <c r="R10" t="n">
-        <v>0.546271060586925</v>
+        <v>0.06379575435816232</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5069561373835163</v>
+        <v>0.558454482756223</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5049264193526888</v>
+        <v>0.5563759713666752</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5621172812001807</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5640860544647807</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.6167866601298613</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.6133122972762852</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.06604942894236066</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.0638963946049933</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.06758866404387376</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.06632198341154583</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.07384332045643605</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.07146826844739751</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.4125064832882382</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.4181081980273664</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3937780205781045</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3966582728603117</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3906238589383526</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.389195151585924</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.03392766190243712</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.03433283404196985</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03811651463470855</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.0386714380690435</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.03240148037957835</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.03374003892481947</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4173491830590993</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4229950549882189</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4198855168388086</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4241629176450307</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3939240967617098</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3939074643170368</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.03703821724933642</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.03761266481189485</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.03530874449369925</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.03630046467661652</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.03132125457100143</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.03270628336705328</v>
       </c>
     </row>
     <row r="11">
@@ -1128,46 +2217,148 @@
         <v>0.3793591077210302</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4217011574688558</v>
+        <v>0.3774782903158234</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4217011574688558</v>
+        <v>0.3774782903158234</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3774782903158234</v>
+        <v>0.3805026795179351</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3774782903158234</v>
+        <v>0.3805026795179351</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4020906920724777</v>
+        <v>0.3927447199451526</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4020906920724777</v>
+        <v>0.3927447199451526</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3805026795179351</v>
+        <v>0.4023042499046477</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3805026795179351</v>
+        <v>0.4023042499046477</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4039672598077267</v>
+        <v>0.382822957514902</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4039672598077267</v>
+        <v>0.382822957514902</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3927447199451526</v>
+        <v>0.4332481655394386</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3927447199451526</v>
+        <v>0.4332481655394386</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4297621156472561</v>
+        <v>0.3694757054632264</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4297621156472561</v>
+        <v>0.3694757054632264</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.3840654324964717</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3840654324964717</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4092406993485928</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4092406993485928</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.4148085727561674</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.4148085727561674</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.4065285810794912</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.4065285810794912</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.4483918192208907</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4483918192208907</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.3108121211305125</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.3108121211305125</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3042531863626383</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3042531863626383</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3061637949734426</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.3061637949734426</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.303101135915119</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.303101135915119</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.2897522666142829</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.2897522666142829</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.314221522503437</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.314221522503437</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3085843965878911</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.3085843965878911</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.3164584914698191</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3164584914698191</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3113881471176029</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.3113881471176029</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.3067344246288296</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3067344246288296</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.3024221271413098</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.3024221271413098</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.3233105443212814</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.3233105443212814</v>
       </c>
     </row>
     <row r="12">
@@ -1192,46 +2383,148 @@
         <v>0.2223989281022662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2339236433475347</v>
+        <v>0.2169835055494956</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2339236433475347</v>
+        <v>0.2169835055494956</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2169835055494956</v>
+        <v>0.2146205699109035</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2169835055494956</v>
+        <v>0.2146205699109035</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2237973887343867</v>
+        <v>0.2415598577997207</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2237973887343867</v>
+        <v>0.2415598577997207</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2146205699109035</v>
+        <v>0.2657146995463869</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2146205699109035</v>
+        <v>0.2657146995463869</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2268436095699864</v>
+        <v>0.2693667108344742</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2268436095699864</v>
+        <v>0.2693667108344742</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2415598577997207</v>
+        <v>0.267647388434876</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2415598577997207</v>
+        <v>0.267647388434876</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2263605968935193</v>
+        <v>0.2179083097872535</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2263605968935193</v>
+        <v>0.2179083097872535</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2138796915054648</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2138796915054648</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.2424891188997595</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2424891188997595</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2597554005250952</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2597554005250952</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2643418408179718</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2643418408179718</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2658801354382527</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2658801354382527</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1942772090815312</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1942772090815312</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.19172344430971</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.19172344430971</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1940225850375645</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1940225850375645</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.2002359424769645</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.2002359424769645</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2035377795095088</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2035377795095088</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.1991680532747877</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1991680532747877</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.1952624433946395</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.1952624433946395</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1927939512457873</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1927939512457873</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.1943103801249252</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.1943103801249252</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.2014915625443094</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.2014915625443094</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.2048515029264103</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.2048515029264103</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.2001382508760675</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.2001382508760675</v>
       </c>
     </row>
     <row r="13">
@@ -1256,46 +2549,148 @@
         <v>0.6987538827527838</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6061863180623278</v>
+        <v>0.7324409187803218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6043766960938161</v>
+        <v>0.7308367656736235</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7324409187803218</v>
+        <v>0.7206877316643123</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7308367656736235</v>
+        <v>0.7200689195375651</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6384585664716415</v>
+        <v>0.7440200841505257</v>
       </c>
       <c r="L13" t="n">
-        <v>0.647999002301619</v>
+        <v>0.7391015225169852</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7206877316643123</v>
+        <v>0.2788949273850248</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7200689195375651</v>
+        <v>0.2737580366871553</v>
       </c>
       <c r="O13" t="n">
-        <v>0.706754057124384</v>
+        <v>0.2614657154373536</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7090894913839947</v>
+        <v>0.2547706263477997</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7440200841505257</v>
+        <v>0.2608275549290052</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7391015225169852</v>
+        <v>0.2525782143379795</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7120085233924635</v>
+        <v>0.747298121740061</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7105817471288497</v>
+        <v>0.7459061411241199</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7497448107190743</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.75105662533845</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7853576638257639</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7831425778721812</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2570008345168567</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.2527773617335882</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.25997819917038</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.2575305485016204</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2717412748487725</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.2673354979186221</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.6422666761464731</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.6466128656525216</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.6275173468344158</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.6298081238443272</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.6249990871500155</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.6238550725817047</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.184194630492957</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1852912141521282</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1952345118945635</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.1966505481025757</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.180004112118524</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.1836846180953088</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.646025682971737</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.6503807000428432</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.6479857381446052</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.6512779112214927</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.6276337281900247</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6276204779299643</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1924531559869483</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.1939398484373308</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1879062119614442</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1905268082885357</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1769781189045742</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.1808487859153428</v>
       </c>
     </row>
     <row r="14">
@@ -1320,46 +2715,2592 @@
         <v>28.71743374545318</v>
       </c>
       <c r="G14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35.37196486214975</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="J14" t="n">
+        <v>38.00359170643648</v>
+      </c>
+      <c r="K14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="L14" t="n">
+        <v>93.7022907473345</v>
+      </c>
+      <c r="M14" t="n">
+        <v>37.51262979636412</v>
+      </c>
+      <c r="N14" t="n">
+        <v>37.51262979636412</v>
+      </c>
+      <c r="O14" t="n">
+        <v>39.0896999505884</v>
+      </c>
+      <c r="P14" t="n">
+        <v>39.0896999505884</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>80.48814649249684</v>
+      </c>
+      <c r="R14" t="n">
+        <v>80.48814649249684</v>
+      </c>
+      <c r="S14" t="n">
+        <v>30.59461280487578</v>
+      </c>
+      <c r="T14" t="n">
+        <v>30.59461280487578</v>
+      </c>
+      <c r="U14" t="n">
+        <v>26.16192471333554</v>
+      </c>
+      <c r="V14" t="n">
+        <v>26.16192471333554</v>
+      </c>
+      <c r="W14" t="n">
+        <v>70.90422575071688</v>
+      </c>
+      <c r="X14" t="n">
+        <v>70.90422575071688</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>28.37271055720311</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28.37271055720311</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>22.99895748465328</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>22.99895748465328</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>48.86683150086641</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>48.86683150086641</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>81.55049591214879</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81.55049591214879</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>76.03319420518046</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>76.03319420518046</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>99.02785030475852</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>99.02785030475852</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>92.25557685374301</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>92.25557685374301</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>81.17220054665233</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>81.17220054665233</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>109.2456684804866</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>109.2456684804866</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>64.6563424050708</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>64.6563424050708</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>60.65505215688275</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>60.65505215688275</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>88.19057748127815</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>88.19057748127815</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>75.15351948440511</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>75.15351948440511</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>69.95174418680006</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>69.95174418680006</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>83.52338911910857</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>83.52338911910857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BB14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FoF</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EW - No costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>EW - With costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MSR - No costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MSR - With costs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio - No costs</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio - With costs</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CVAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CDAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio synth. - No costs</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Omega ratio synth. - With costs</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - No costs</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR - With costs</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - No costs</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR - With costs</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio - No costs</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio - With costs</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CVAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Min t - Omega ratio synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR Risk - No costs</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR Risk - With costs</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR Risk - No costs</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR Risk - With costs</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax - No costs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax - With costs</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CVAR risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - CDAR synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Corr - Omegamax synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk - No costs</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR risk - With costs</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR Risk - No costs</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR Risk - With costs</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax - No costs</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax - With costs</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR Risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CVAR Risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR Risk synth. - No costs</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - CDAR Risk synth. - With costs</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax synth. - No costs</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corr &amp; Mint - Omegamax synth. - With costs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Return</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.049341</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.07511285024057157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07446299966633285</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09048622096408598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.04281234355859342</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.07798306381709619</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.03916420041440416</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.07248667530731501</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.03690580701796131</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06846526081957172</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.04784680267269592</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.07183881920067825</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.02650364274943184</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.07631855983476132</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.03145341656254019</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07063505878935605</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.04915008364585627</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06953619465969463</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.05131380547233277</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.07080431552071298</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.05205555930466055</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.07295112782925806</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.05706597593081297</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.07437536720106119</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.05686687487829634</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.07217831079151016</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.05297009634938643</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.07079984135163042</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.05473417098243316</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.07586569279508426</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.04673233277863331</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.07093409694165653</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.04380499536493976</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.06963820037747115</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.05568861111294732</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.074973990710409</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.04094657231399679</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.07338026923286911</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.03961835209930609</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.07116847144993321</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.05520539854830608</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.06822674444731303</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.05279903685750997</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.0656663003213509</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.05010510381311439</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.07033123614637127</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.05787462003956323</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.07115552764719868</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.05561031665554395</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.06945375425169109</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.05375670879015293</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.07077569452836374</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.05695350234325258</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>M squared</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.049341</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.07811978622012136</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07743346739872256</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1008865102565033</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04289214058796988</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.08844667140905069</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.03829555421275314</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.07829719358417983</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.035955920658406</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.07346892209824178</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.04889327672913266</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0836346734090796</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.02024023136106483</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.08855230084086896</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.02759193866968609</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.07984764825591087</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.05133528843596941</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.07432659681268705</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.05278267106445242</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.07707130044957161</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05409372899253437</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.08017843815104769</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.06033620260677255</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.08192266700893938</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.06002051584955091</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.07777301294526676</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.0548754223842428</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.07694576013958243</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.05734755905913208</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.08803365267948055</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.04820718805481203</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.08049537905172693</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.04425225997973924</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08067022198364936</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.06106710446957679</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.08914758478669663</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.04034034370808015</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.08670661271927782</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.03847142111643898</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.08537976116966503</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06145247575672601</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.07548049306314555</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.05555756105695724</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.07279630550434071</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.05234669446162521</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.07841409089462403</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.06226563253857142</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.08278552298127356</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.06068912138529527</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.08020999810398233</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.05809493350087132</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0.08089395422567336</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.06197678494379074</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Volatility</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.056391</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0516408737109758</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05160648574832554</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.04635926447419554</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04674845873139948</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.04356993503018398</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.04453060808782261</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04725705504243226</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04811176851273815</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04730205219343551</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.04726735691315499</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04024970762093179</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.04047077437051613</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.04143525659442759</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.04171153043204787</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.04250892982647207</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.04256089180137527</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0479233986582538</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.04839388034992367</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.04619088126960968</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.04654110078927363</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.04559596702549934</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.04609514453047053</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0456158416428561</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.0462840642836615</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.04746589964662706</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.04776127733619481</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0463515553631312</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.04651521415572296</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.0413465122197102</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.04200646752637717</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.04222862495389714</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.04258455060578146</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.04012478632439787</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.04012127883583846</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.03928450065732295</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.03999632098337191</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.03942045587985161</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.04003428546967362</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.03773444918663441</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.03787654061317734</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.04401656777144361</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.04454578361254595</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.04315263974266992</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.04365033031621379</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.04372614908182246</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.04391084508743305</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.04014183648973268</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.04070988215384854</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.04033823934278739</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0.04077890934871746</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0.04155888652178127</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0.04190281766027548</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>MDD</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.222035</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.152312370186105</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1531870901193021</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1060569278364601</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2492855966251576</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.1049889349555794</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2160688388403541</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1239450333778075</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2084837940113204</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1286414685093911</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.1725324567999956</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08243161836502075</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2023401083002391</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.08862247340158368</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1510274959932629</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.1144548524562986</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1428706593114027</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1425731592990609</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.1436808565084626</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1443982701888145</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1469617299878275</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1287202574715037</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.1317173821875384</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.1022724274660187</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1308276857642225</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.1365854343599385</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.1586614440542999</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.1527176372871303</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.1630019285346923</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.08093924929351437</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.09174294140174323</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.07981556745928395</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.09109314045311306</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.07461687657785605</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.0804133339181064</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.0617113676137913</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.102504970275559</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.06251381197335058</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.09653828594213693</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.05428122685667204</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.06804685844541485</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.09475719891168126</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.1040713050362363</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.09126455375334598</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.1035713707604846</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.09464526936562626</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.1058963710198472</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.05931517727853682</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.06568507615538666</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.058495403478756</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.07042137608959066</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0.05924177512428287</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.0740339864826421</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CVaR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.072119</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.06358609510140846</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06366393747415097</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05663656315061211</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.060780642682189</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05663656314976539</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.06076065697738244</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.07748465279634546</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.08146627715198362</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.05940781452605793</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06109338845926476</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.04939008795836215</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.05313757199282668</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05048106827522686</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.0549305612485852</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.05395099724520943</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.05586547750117816</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.06194188798497541</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.06449382566804547</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.05481086538612936</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.05537763139501727</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.05589626747320792</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.05750226729782801</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.04905134617444182</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.05166416079654499</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.06042077845918228</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.06092576892235912</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.06335694232307959</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.06400239102501032</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.04802016614455199</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.04897059700130525</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.05221985280040061</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.05271022220173616</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.04802016620452552</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.04850018264920495</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.02954605881607701</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.03214457842008717</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.03209518450832354</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.03469417059737672</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.02750679046989808</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.02892333925563347</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.05196700309961114</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.05380897433866978</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.04925471325049845</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.05090498473599927</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.05035068424796455</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.0516469081487764</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.0314194553341518</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.03266210282179829</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.03309215322466358</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.03456342232119142</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0.03061639896751215</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0.03207949167923013</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CDaR</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.242259</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1604704890428219</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1614094894495695</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09766153435465268</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2739553467247042</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.09299025208704255</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.2285944796822431</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1203048575131326</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.2211003653838322</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.09196459514394932</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1318487156201701</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.08256268506240631</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2047286031507463</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0871388694601934</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.148031018933353</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1192040872838295</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1492460168571559</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.149790487933</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1509875522939804</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1516532263024275</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1545076798912185</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.09877573396454364</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.1075631101895325</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.1053801239561301</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.1341410430683313</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1426211637915022</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1653044667754222</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.1608133641501611</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.1733404226975557</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.07427099871281419</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.08971566011584343</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.07304487549759693</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.08325300673446838</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0699695601813386</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.07614839852407697</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.05513696049592613</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.09758205825370229</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.05607944093843856</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.09334510605837014</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.05505316100094748</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.06781983506362017</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.07984633040516281</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.09262254804583965</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.07735461235653927</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.08841526394111338</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.07991340463527326</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.09039502168794251</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.05107614181185827</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.06462644714822224</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.05671528422148275</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.07103833226387242</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0.05953555398357831</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.07534589603741797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Sharpe</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.122638</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6329745741220049</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6208039358947036</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.036701753427496</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.008275211055357412</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.8161034345445893</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.07323703676451936</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6361205767952435</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1147262582263156</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5504998074292227</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.11469463982465</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7307712463805195</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.3934159327142998</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8179765838168117</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.2630465370100195</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6636151205977988</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1579993549280034</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.5657091363019795</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.1836661001759981</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.6143815520425198</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.2069153703988362</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.6694810884503952</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.3176144881172173</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7004118712777591</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.3120163474346351</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.626825169583528</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.2207773062492408</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.612155318915607</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.2646162338444344</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.8087792852105341</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.1025280828446354</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0.6751014691267407</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.03239449869112963</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.6782019961772615</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3305757269387327</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.8285328811545748</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.03697634796701642</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.785246602199041</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.07011835140404282</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.7617172603127751</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.3374095982720633</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.5861714249327168</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.2328738170072268</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.5385721537283302</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.1759348339726858</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.6381935417654612</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.3518294811389596</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.7157130805031481</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.3238728721846492</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.6700407478355994</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.2778695844260209</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0.6821694878044144</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0.3467072850556047</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Calmar</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.031147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2146073887797402</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2091397482993091</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4531597487164368</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001551848031945043</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.3386792487804747</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.01509375344995455</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.242536423541914</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.02647535845312468</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2024212792750599</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03142198619997644</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.3568209576373081</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.07868853872026799</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3824432825870241</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.07264951035159638</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.2464689612355987</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.04706770082946725</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.1901529333915432</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.06186151372038094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1965316155624755</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06552773371257782</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2371471144698218</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.1111507493664694</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3123997131641226</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1103847751938696</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2178330415308066</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.06645978937201179</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.185796163819666</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.07551248563132816</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.4131518749048416</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.04694467516247576</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3571810318848025</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.01514389735604056</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3646991328161356</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.1649368365994645</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.5274311974096748</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.01442776753269563</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.4951670368459788</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.02907797739908995</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.5295197422444</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.1878104095353545</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.2722880641003618</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.09967729969197189</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.2546531941424237</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.07414803493134763</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.2948456498389743</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0.1458891338267797</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.4843623296649272</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.2007278857114375</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4620579130705308</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.1609059524718578</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0.4785508920488901</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.196234362586707</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>R squared</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8244346587061334</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.824613583768536</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.3674618522059612</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.365271190781277</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4076293411010234</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4199027069838933</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4995012972617772</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5028079067912128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5069561373835163</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5049264193526888</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.07002104358354522</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06933920418208017</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.06677166131705892</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.06562464792542788</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.07257970040605721</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.07507331522251603</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.7012114181794631</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.6869578095640227</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.6963874320866501</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.6868931081817796</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.5466445202471468</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.5459823606836356</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.08408594786328072</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.08363094039275998</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.07949427394238373</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0797349818745976</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.07136432862359221</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.06515992277438643</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3192966479807463</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3265774968655535</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3374092191493234</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3490254365369829</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.340505290172233</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3378851698340855</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.03545714813703749</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.0365028916446215</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.03915479577023462</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.04067383006363123</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.03513293381435534</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.03843312874322502</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.4243704511113188</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.4283173554603152</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.4220570246212916</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4264442350492453</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.4735132843149955</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.4755371097784107</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0.03280059753700615</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.03454302496907291</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.03538454249827316</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0.03574880969032057</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0.03945510825403897</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0.04208415369525242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Corr. Stocks</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.647835</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5554946431602711</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5554946431602711</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4217011574688558</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4217011574688558</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.4020906920724777</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4039672598077267</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4297621156472561</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4297621156472561</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4427743625166369</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4427743625166369</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.4365294995500955</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.4365294995500955</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.442539508309789</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.442539508309789</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.4888583360639568</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4888583360639568</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.4810265579061373</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.4810265579061373</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.4536901123256525</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.4536901123256525</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.5149375119816944</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.5149375119816944</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.50612657144462</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.50612657144462</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.4718294782174679</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.4718294782174679</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.31149627623441</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.31149627623441</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.3081621517483313</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.3081621517483313</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.3153311390099689</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.3153311390099689</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.3166966210472908</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.3166966210472908</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.3130172819278208</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.3130172819278208</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.3218659178479311</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.3218659178479311</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3280598997839189</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.3280598997839189</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.3263652410937374</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3263652410937374</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3500227996673361</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.3500227996673361</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.3407167553674957</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3407167553674957</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.3394405094527765</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.3394405094527765</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0.370574886630037</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0.370574886630037</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Corr. Bonds</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.360859</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2559630748399553</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2559630748399553</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2339236433475347</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2339236433475347</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.2237973887343867</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.2268436095699864</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2263605968935193</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2263605968935193</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2673111616190468</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2673111616190468</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.2673006353269929</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2673006353269929</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2592314717855644</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2592314717855644</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.2502749442007013</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.2502749442007013</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.2507097513525957</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.2507097513525957</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.2415003410365985</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.2415003410365985</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2589131324192354</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2589131324192354</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.2610116893342596</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.2610116893342596</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.2646443917673662</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.2646443917673662</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1926902109265513</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1926902109265513</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1920451407094667</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1920451407094667</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.1867326101877463</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1867326101877463</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.2000136010885293</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.2000136010885293</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2005523949849569</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.2005523949849569</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.1928469038403617</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.1928469038403617</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.2015182492504485</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.2015182492504485</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.1997559782307998</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.1997559782307998</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.1865245837502799</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.1865245837502799</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.2007687469740302</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.2007687469740302</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.2006484030834543</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.2006484030834543</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0.2069524543249557</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.2069524543249557</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Corr. FoF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9079838427560999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9080823661808084</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6061863180623278</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6043766960938161</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6384585664716415</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.647999002301619</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.706754057124384</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7090894913839947</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.7120085233924635</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.7105817471288497</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.2646148967528955</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2633233832801032</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2584021310226736</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.2561730819688675</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.2694061996429502</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2739951007272142</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.8373836744166099</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.8288291799665496</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.8344983116140203</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.8287901472518721</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7393541237101116</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.7389061920728744</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2899757711659382</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.2891901457393729</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.2819472892978111</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.2823738335515485</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.2671410275932772</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.255264417368317</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.5650634017353684</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.5714695939991503</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.5808693649602493</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.5907837476919819</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.5835283113716362</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.5812789088157986</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.1883006854396376</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.1910572993754008</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.1978757078830918</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.2016775398095461</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.1874378131924165</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.1960436909039033</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.651437219623901</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.6544595903952476</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.6496591603458629</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.6530269788065771</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.6881230153940466</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.6895919879018396</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.1811093524283222</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.185857539446407</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.1881077948897201</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.1890735562957458</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0.1986330995932929</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.2051442265706064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Turnover</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.08276406543348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.08276406543348</v>
+      </c>
+      <c r="E14" t="n">
         <v>449.4252735672196</v>
       </c>
+      <c r="F14" t="n">
+        <v>449.4252735672196</v>
+      </c>
+      <c r="G14" t="n">
+        <v>368.4890547671815</v>
+      </c>
       <c r="H14" t="n">
-        <v>449.4252735672196</v>
+        <v>368.4890547671815</v>
       </c>
       <c r="I14" t="n">
-        <v>35.37196486214975</v>
+        <v>338.8852096233285</v>
       </c>
       <c r="J14" t="n">
-        <v>35.37196486214975</v>
+        <v>338.8852096233285</v>
       </c>
       <c r="K14" t="n">
-        <v>368.4890547671815</v>
+        <v>195.7782104719494</v>
       </c>
       <c r="L14" t="n">
-        <v>368.4890547671815</v>
+        <v>195.7782104719494</v>
       </c>
       <c r="M14" t="n">
-        <v>38.00359170643648</v>
+        <v>432.6905959790688</v>
       </c>
       <c r="N14" t="n">
-        <v>38.00359170643648</v>
+        <v>432.6905959790688</v>
       </c>
       <c r="O14" t="n">
-        <v>338.8852096233285</v>
+        <v>426.4464222083702</v>
       </c>
       <c r="P14" t="n">
-        <v>338.8852096233285</v>
+        <v>426.4464222083702</v>
       </c>
       <c r="Q14" t="n">
-        <v>93.7022907473345</v>
+        <v>203.1342588063965</v>
       </c>
       <c r="R14" t="n">
-        <v>93.7022907473345</v>
+        <v>203.1342588063965</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7782104719494</v>
+        <v>172.6863771265313</v>
       </c>
       <c r="T14" t="n">
-        <v>195.7782104719494</v>
+        <v>172.6863771265313</v>
+      </c>
+      <c r="U14" t="n">
+        <v>177.5205604894916</v>
+      </c>
+      <c r="V14" t="n">
+        <v>177.5205604894916</v>
+      </c>
+      <c r="W14" t="n">
+        <v>149.9425093750914</v>
+      </c>
+      <c r="X14" t="n">
+        <v>149.9425093750914</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>164.7201374457903</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>164.7201374457903</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>181.1868482658087</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>181.1868482658087</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>151.5176318923575</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>151.5176318923575</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>275.8861643826874</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>275.8861643826874</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>257.779539793525</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>257.779539793525</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>131.9382797686039</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>131.9382797686039</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>322.2727549616943</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>322.2727549616943</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>320.1631924126655</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>320.1631924126655</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>150.4954778485329</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>150.4954778485329</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>146.1902823092215</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>146.1902823092215</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>147.7908957250765</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>147.7908957250765</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>117.6709976346168</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>117.6709976346168</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>146.5311041286916</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>146.5311041286916</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>148.1894726021721</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>148.1894726021721</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>130.235209867425</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>130.235209867425</v>
       </c>
     </row>
   </sheetData>

--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -1188,40 +1188,40 @@
         <v>0.05780155707146162</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06620703597255373</v>
+        <v>0.0649576161760137</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06296691876697436</v>
+        <v>0.06174193689618201</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0662604069929742</v>
+        <v>0.06630479621518104</v>
       </c>
       <c r="V2" t="n">
-        <v>0.06333340219690387</v>
+        <v>0.06345968182661799</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06775926992461367</v>
+        <v>0.06699577525122824</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06025394494932002</v>
+        <v>0.05976404552881864</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.06453079014587138</v>
+        <v>0.06462468303465685</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0615216625318884</v>
+        <v>0.06155734408929425</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.06438044500901685</v>
+        <v>0.06456131251404473</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.06194095876149608</v>
+        <v>0.06213491566730855</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.06687556675056272</v>
+        <v>0.06673345725817281</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.06168728856930805</v>
+        <v>0.0612220743158991</v>
       </c>
       <c r="AE2" t="n">
         <v>0.0674525717005785</v>
@@ -1260,40 +1260,40 @@
         <v>0.05686069052837128</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.06747357641388807</v>
+        <v>0.0669601935466555</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.06062933119485314</v>
+        <v>0.06014372188103545</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.06997314713634917</v>
+        <v>0.07005671732861352</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.06356379967574965</v>
+        <v>0.06365952636012695</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.06454505706767111</v>
+        <v>0.06497540136324464</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.05524304310188755</v>
+        <v>0.05570646400951706</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0667543370236634</v>
+        <v>0.06686748175401847</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.05878556170201099</v>
+        <v>0.05885017051050312</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.06648270346025908</v>
+        <v>0.06636880873408324</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05906545900110438</v>
+        <v>0.05901444425337377</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.06819210439603918</v>
+        <v>0.06769530602851148</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.05932828882568675</v>
+        <v>0.05783169414888567</v>
       </c>
     </row>
     <row r="3">
@@ -1354,40 +1354,40 @@
         <v>0.06716080437854419</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0819558367737479</v>
+        <v>0.07977528838412684</v>
       </c>
       <c r="T3" t="n">
-        <v>0.07625691629754575</v>
+        <v>0.07412735560268241</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07845653007501346</v>
+        <v>0.07853570344390515</v>
       </c>
       <c r="V3" t="n">
-        <v>0.07393540664747672</v>
+        <v>0.07414817838954357</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08523137860388816</v>
+        <v>0.08369048955835943</v>
       </c>
       <c r="X3" t="n">
-        <v>0.07241248657877972</v>
+        <v>0.07155832550137992</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07823065335000916</v>
+        <v>0.07841771985716244</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.07348551223663195</v>
+        <v>0.07354409569396467</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07679714781014506</v>
+        <v>0.07722930171916058</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07306470187008353</v>
+        <v>0.07350168775124304</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.08047869009491232</v>
+        <v>0.08016076403453493</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.07252854363160557</v>
+        <v>0.0717389432689076</v>
       </c>
       <c r="AE3" t="n">
         <v>0.07913705447605919</v>
@@ -1426,40 +1426,40 @@
         <v>0.065923703801784</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.07943394020280209</v>
+        <v>0.07866416215321098</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.06915819232629086</v>
+        <v>0.06844104520399084</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.08197861627347101</v>
+        <v>0.08209978287036651</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.07265086184123576</v>
+        <v>0.0727815899734362</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0769886135315811</v>
+        <v>0.07751447363189273</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.06241605881490499</v>
+        <v>0.06303453161429276</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08128298450093385</v>
+        <v>0.08145003338823797</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.06834003197825757</v>
+        <v>0.06844859856476654</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.08021197082112877</v>
+        <v>0.080027114366747</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.06844447943275095</v>
+        <v>0.06836768313112149</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.08462827126321565</v>
+        <v>0.08370986420386931</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.06992679043094226</v>
+        <v>0.0673543060266576</v>
       </c>
     </row>
     <row r="4">
@@ -1520,40 +1520,40 @@
         <v>0.0350542261360682</v>
       </c>
       <c r="S4" t="n">
-        <v>0.03392516852649528</v>
+        <v>0.03401938569273526</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03423914367984848</v>
+        <v>0.03436014422450861</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0373034843959929</v>
+        <v>0.03729101495992461</v>
       </c>
       <c r="V4" t="n">
-        <v>0.03741760342083381</v>
+        <v>0.03739111358461582</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03337405912366239</v>
+        <v>0.03357692403404116</v>
       </c>
       <c r="X4" t="n">
-        <v>0.03352689171186757</v>
+        <v>0.03356160416494638</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0348147524181084</v>
+        <v>0.03478091381995961</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03467026184149988</v>
+        <v>0.0346696521639291</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.03602007613102816</v>
+        <v>0.03586587312332168</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.03591814935020964</v>
+        <v>0.03576503438952523</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03623277495406624</v>
+        <v>0.03632567466654817</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.03608268431972391</v>
+        <v>0.03615967412216915</v>
       </c>
       <c r="AE4" t="n">
         <v>0.03844323032242835</v>
@@ -1592,40 +1592,40 @@
         <v>0.03464180589147725</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.03816684041537009</v>
+        <v>0.03817869622363873</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0384001331317497</v>
+        <v>0.03840606712572819</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.03927501939220835</v>
+        <v>0.0392738553189046</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.03943766178905789</v>
+        <v>0.03944565181077837</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0360891117821031</v>
+        <v>0.03623986780059495</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.03615701147008575</v>
+        <v>0.03633998001687674</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03530687564368002</v>
+        <v>0.03531923737050244</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.03560034602867043</v>
+        <v>0.03559182938366862</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.03590223040614099</v>
+        <v>0.03590792379588539</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.03606406209610364</v>
+        <v>0.03605992966485463</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.03442935127967104</v>
+        <v>0.0345166730470188</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.03465915306502813</v>
+        <v>0.03485030229816374</v>
       </c>
     </row>
     <row r="5">
@@ -1686,40 +1686,40 @@
         <v>0.1322096814193981</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09269335105271286</v>
+        <v>0.09299748460595154</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09470210025302161</v>
+        <v>0.09514297768578062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1116005486340156</v>
+        <v>0.1116257237078178</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1123590628977585</v>
+        <v>0.1123843470123844</v>
       </c>
       <c r="W5" t="n">
-        <v>0.08652689378324728</v>
+        <v>0.08679184744388049</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08868188960062942</v>
+        <v>0.08852264319641022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1125774678342902</v>
+        <v>0.1123938076770421</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1146369131230594</v>
+        <v>0.1144458665004733</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1201564200674133</v>
+        <v>0.1172069074654866</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1215730473109412</v>
+        <v>0.1185112549511563</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1324424681215092</v>
+        <v>0.132460841672378</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1341680812854199</v>
+        <v>0.1346151345558149</v>
       </c>
       <c r="AE5" t="n">
         <v>0.07464036742924347</v>
@@ -1758,40 +1758,40 @@
         <v>0.0589791566909002</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.07994858300911538</v>
+        <v>0.08131419125284897</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.08809564990960463</v>
+        <v>0.08965616044395516</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.08605690063213149</v>
+        <v>0.0860569006321317</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.09051767424352863</v>
+        <v>0.09051767424352859</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.07518431113699373</v>
+        <v>0.07518431113699346</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.08244103184435898</v>
+        <v>0.08244103184435904</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05562461585844496</v>
+        <v>0.05548439151308564</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06348076113671312</v>
+        <v>0.06336111990490204</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.05735000507870727</v>
+        <v>0.05735000507870702</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0649677327089364</v>
+        <v>0.06496773270893653</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.05187900690962131</v>
+        <v>0.05188166989525363</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0588835262942395</v>
+        <v>0.05884699036187551</v>
       </c>
     </row>
     <row r="6">
@@ -1852,40 +1852,40 @@
         <v>0.04759899362262675</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0457368029894516</v>
+        <v>0.04616028208930504</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0467363734874894</v>
+        <v>0.04724521987488963</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05627797694971794</v>
+        <v>0.05598622677098072</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0564689156026208</v>
+        <v>0.05612565222257831</v>
       </c>
       <c r="W6" t="n">
-        <v>0.04253481922767363</v>
+        <v>0.0479495266631571</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0437177636324009</v>
+        <v>0.04869498716075587</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04358165460808251</v>
+        <v>0.04324713928438012</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.04366232085785453</v>
+        <v>0.04332025675415324</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.04687445194410098</v>
+        <v>0.04634383275007083</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.04694056417422485</v>
+        <v>0.04640884233980372</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05154544251543352</v>
+        <v>0.05178741734826316</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.05169747477796063</v>
+        <v>0.05190907533973924</v>
       </c>
       <c r="AE6" t="n">
         <v>0.04802016620199821</v>
@@ -1924,10 +1924,10 @@
         <v>0.02821797369125963</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.04802016620199284</v>
+        <v>0.04802016620199653</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.04871236647222921</v>
+        <v>0.04871236647109595</v>
       </c>
       <c r="AS6" t="n">
         <v>0.04871843923865057</v>
@@ -1942,10 +1942,10 @@
         <v>0.04869315058936893</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02821228362034443</v>
+        <v>0.02821226698727885</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.0294845612895942</v>
+        <v>0.02948455235321477</v>
       </c>
       <c r="AY6" t="n">
         <v>0.02962938890960983</v>
@@ -1954,10 +1954,10 @@
         <v>0.03091130651665848</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0270585312935967</v>
+        <v>0.02705853058896851</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.02821797411882143</v>
+        <v>0.02821797339004247</v>
       </c>
     </row>
     <row r="7">
@@ -2018,40 +2018,40 @@
         <v>0.1359803853980809</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07925730812119491</v>
+        <v>0.0795673505722793</v>
       </c>
       <c r="T7" t="n">
-        <v>0.08394809829371974</v>
+        <v>0.08447281664768884</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09817312818306334</v>
+        <v>0.09819860476275455</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1023799782743283</v>
+        <v>0.1024098299674606</v>
       </c>
       <c r="W7" t="n">
-        <v>0.07229915727720641</v>
+        <v>0.07145675109641147</v>
       </c>
       <c r="X7" t="n">
-        <v>0.07965350550831363</v>
+        <v>0.07791243604338116</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1126441373456121</v>
+        <v>0.1124224959168405</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1150160467009419</v>
+        <v>0.1147665694010936</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1205592108368351</v>
+        <v>0.1173875568464613</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1222305065295953</v>
+        <v>0.1189524430914749</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1351514183028661</v>
+        <v>0.1351706549315169</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1371771598199603</v>
+        <v>0.1376885472602768</v>
       </c>
       <c r="AE7" t="n">
         <v>0.07159904567503698</v>
@@ -2090,10 +2090,10 @@
         <v>0.05688585718925363</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0734251049522659</v>
+        <v>0.07391158866491616</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.07935639324444178</v>
+        <v>0.07991828201507402</v>
       </c>
       <c r="AS7" t="n">
         <v>0.07541240248911689</v>
@@ -2108,10 +2108,10 @@
         <v>0.07672924271604092</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0551098377660096</v>
+        <v>0.05492949153737684</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.06395760835797326</v>
+        <v>0.06354727437639247</v>
       </c>
       <c r="AY7" t="n">
         <v>0.05666540281704147</v>
@@ -2120,10 +2120,10 @@
         <v>0.06588028411789325</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.04747101715156476</v>
+        <v>0.04689370731483925</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.05547208949047092</v>
+        <v>0.05392249692744283</v>
       </c>
     </row>
     <row r="8">
@@ -2184,40 +2184,40 @@
         <v>0.4386366087700438</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7010000778007075</v>
+        <v>0.6623319475385748</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5999399039581013</v>
+        <v>0.5621759493758305</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6389461248144447</v>
+        <v>0.6403501230729411</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5587720775613353</v>
+        <v>0.5625452043020686</v>
       </c>
       <c r="W8" t="n">
-        <v>0.7590859605858808</v>
+        <v>0.7317610460755672</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5317658107545598</v>
+        <v>0.5166187899578881</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6349406046126351</v>
+        <v>0.6382578949331412</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5507940038962176</v>
+        <v>0.5518328768559418</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6095199447406537</v>
+        <v>0.6171834222982446</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.5433316837996762</v>
+        <v>0.5510808477511927</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.674805520291522</v>
+        <v>0.6691676695678626</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.5338238752569894</v>
+        <v>0.5198217234014471</v>
       </c>
       <c r="AE8" t="n">
         <v>0.6510140093481921</v>
@@ -2256,40 +2256,40 @@
         <v>0.4166988400522236</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.6562787473422238</v>
+        <v>0.6426281087981773</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.4740567158014241</v>
+        <v>0.461339392730676</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.7014040315339942</v>
+        <v>0.7035527046725842</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.5359929701901374</v>
+        <v>0.5383112000762122</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.6129152472675142</v>
+        <v>0.6222404367268696</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3544970224216022</v>
+        <v>0.3654645326516632</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.6890682447553207</v>
+        <v>0.692030558348161</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4595481036267771</v>
+        <v>0.4614733380903762</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6700757304500428</v>
+        <v>0.6667976314673036</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.4614002926426786</v>
+        <v>0.4600384474255799</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.748390929316602</v>
+        <v>0.7321046208019636</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.4876864301298702</v>
+        <v>0.4420680148194581</v>
       </c>
     </row>
     <row r="9">
@@ -2350,40 +2350,40 @@
         <v>0.1163006121057575</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2565615063690082</v>
+        <v>0.2422874777248898</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2169057340440612</v>
+        <v>0.2030254588404635</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2135734733263752</v>
+        <v>0.2139229670896208</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1860812244389281</v>
+        <v>0.1871630008067019</v>
       </c>
       <c r="W9" t="n">
-        <v>0.292785036199233</v>
+        <v>0.283094389378414</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2010382822640605</v>
+        <v>0.1958657661664053</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1963563435476371</v>
+        <v>0.1975125969783555</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1665796104899543</v>
+        <v>0.1671694616697816</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1827197814367362</v>
+        <v>0.1888610730940456</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.1605246310516831</v>
+        <v>0.1663084698525321</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1846090374278785</v>
+        <v>0.1835105889045797</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.1435646853460877</v>
+        <v>0.1396320271256507</v>
       </c>
       <c r="AE9" t="n">
         <v>0.3353022280902475</v>
@@ -2422,40 +2422,40 @@
         <v>0.2447508771267331</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.3133024410820861</v>
+        <v>0.301727201273953</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2066372291645928</v>
+        <v>0.1976242524464656</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.3201097964012096</v>
+        <v>0.3210809003063052</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.2335268736887864</v>
+        <v>0.2345844205731635</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2942045559383859</v>
+        <v>0.2999284136031783</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.155475406106118</v>
+        <v>0.1610966470981571</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.437375547716099</v>
+        <v>0.4405201335257601</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.2577170029625081</v>
+        <v>0.2592233271614565</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.4194805777464969</v>
+        <v>0.4174946193142451</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.2561266664418644</v>
+        <v>0.2553414343642851</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.496667452498636</v>
+        <v>0.4870663547154802</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.2870547960247058</v>
+        <v>0.2618010514737942</v>
       </c>
     </row>
     <row r="10">
@@ -2516,40 +2516,40 @@
         <v>0.06379575435816232</v>
       </c>
       <c r="S10" t="n">
-        <v>0.558454482756223</v>
+        <v>0.5545106067720953</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5563759713666752</v>
+        <v>0.5524904537439905</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5634040561452922</v>
+        <v>0.5638137357493416</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5651716739569859</v>
+        <v>0.5656407763127242</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6167866601298613</v>
+        <v>0.6381629224850431</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6133122972762852</v>
+        <v>0.6315701033308945</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06604942894236066</v>
+        <v>0.06653841408199135</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0638963946049933</v>
+        <v>0.0643678742810363</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06758866404387376</v>
+        <v>0.06689398180343009</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.06632198341154583</v>
+        <v>0.06591404432673609</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.07384332045643605</v>
+        <v>0.07071706853743365</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.07146826844739751</v>
+        <v>0.0684504168220551</v>
       </c>
       <c r="AE10" t="n">
         <v>0.4125064832882382</v>
@@ -2588,40 +2588,40 @@
         <v>0.03374003892481947</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4173491830590993</v>
+        <v>0.4170240519566233</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.4229950549882189</v>
+        <v>0.4226815981926823</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.423160432689961</v>
+        <v>0.4218217057262653</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4276839585401849</v>
+        <v>0.426504826867046</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.3939240967617098</v>
+        <v>0.3940337933342934</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.3939074643170368</v>
+        <v>0.3940256343366564</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.03703821724933642</v>
+        <v>0.03713221122483668</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03761266481189485</v>
+        <v>0.03760999285218924</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.03530874449369925</v>
+        <v>0.03564568547329028</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.03630046467661652</v>
+        <v>0.03653985318571895</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.03132125457100143</v>
+        <v>0.03043539215092272</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.03270628336705328</v>
+        <v>0.03148205800263837</v>
       </c>
     </row>
     <row r="11">
@@ -2682,40 +2682,40 @@
         <v>0.4332481655394386</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3694757054632264</v>
+        <v>0.3644293975435386</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3694757054632264</v>
+        <v>0.3644293975435386</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3844630490638277</v>
+        <v>0.3833734238033782</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3844630490638277</v>
+        <v>0.3833734238033782</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4092406993485928</v>
+        <v>0.4090876272565472</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4092406993485928</v>
+        <v>0.4090876272565472</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.4148085727561674</v>
+        <v>0.4164541969919204</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.4148085727561674</v>
+        <v>0.4164541969919204</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.4065285810794912</v>
+        <v>0.4054502834887002</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.4065285810794912</v>
+        <v>0.4054502834887002</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4483918192208907</v>
+        <v>0.4485194383925314</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4483918192208907</v>
+        <v>0.4485194383925314</v>
       </c>
       <c r="AE11" t="n">
         <v>0.3108121211305125</v>
@@ -2754,40 +2754,40 @@
         <v>0.314221522503437</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.3085843965878911</v>
+        <v>0.3081456816301733</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.3085843965878911</v>
+        <v>0.3081456816301733</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.3168174133157898</v>
+        <v>0.317128626303157</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.3168174133157898</v>
+        <v>0.317128626303157</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3113881471176029</v>
+        <v>0.3124979795631308</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.3113881471176029</v>
+        <v>0.3124979795631308</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3067344246288296</v>
+        <v>0.3067828139424297</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.3067344246288296</v>
+        <v>0.3067828139424297</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.3024221271413098</v>
+        <v>0.3021695263555768</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.3024221271413098</v>
+        <v>0.3021695263555768</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.3233105443212814</v>
+        <v>0.3236110440184905</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.3233105443212814</v>
+        <v>0.3236110440184905</v>
       </c>
     </row>
     <row r="12">
@@ -2848,40 +2848,40 @@
         <v>0.267647388434876</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2179083097872535</v>
+        <v>0.2136564768339546</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2179083097872535</v>
+        <v>0.2136564768339546</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2138585962863004</v>
+        <v>0.2138954922197233</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2138585962863004</v>
+        <v>0.2138954922197233</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2424891188997595</v>
+        <v>0.2424321942783848</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2424891188997595</v>
+        <v>0.2424321942783848</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2597554005250952</v>
+        <v>0.2614579700048983</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2597554005250952</v>
+        <v>0.2614579700048983</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2643418408179718</v>
+        <v>0.2640078070843803</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.2643418408179718</v>
+        <v>0.2640078070843803</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2658801354382527</v>
+        <v>0.2650645054623035</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2658801354382527</v>
+        <v>0.2650645054623035</v>
       </c>
       <c r="AE12" t="n">
         <v>0.1942772090815312</v>
@@ -2920,40 +2920,40 @@
         <v>0.1991680532747877</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.1952624433946395</v>
+        <v>0.1945280061541952</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.1952624433946395</v>
+        <v>0.1945280061541952</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1922857979524608</v>
+        <v>0.1922225216168501</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1922857979524608</v>
+        <v>0.1922225216168501</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1943103801249252</v>
+        <v>0.194288305626703</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1943103801249252</v>
+        <v>0.194288305626703</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.2014915625443094</v>
+        <v>0.2014257523407955</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2014915625443094</v>
+        <v>0.2014257523407955</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2048515029264103</v>
+        <v>0.2048030710725523</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2048515029264103</v>
+        <v>0.2048030710725523</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.2001382508760675</v>
+        <v>0.199908768290936</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.2001382508760675</v>
+        <v>0.199908768290936</v>
       </c>
     </row>
     <row r="13">
@@ -3014,40 +3014,40 @@
         <v>0.2525782143379795</v>
       </c>
       <c r="S13" t="n">
-        <v>0.747298121740061</v>
+        <v>0.7446546896193532</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7459061411241199</v>
+        <v>0.7432970158314847</v>
       </c>
       <c r="U13" t="n">
-        <v>0.750602462123122</v>
+        <v>0.7508753130509359</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7517790060629428</v>
+        <v>0.7520909361990239</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7853576638257639</v>
+        <v>0.7988510014295803</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7831425778721812</v>
+        <v>0.7947138499679586</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2570008345168567</v>
+        <v>0.2579504101217737</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2527773617335882</v>
+        <v>0.2537082463796482</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.25997819917038</v>
+        <v>0.2586387090198031</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2575305485016204</v>
+        <v>0.2567373060673814</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2717412748487725</v>
+        <v>0.2659268104900925</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.2673354979186221</v>
+        <v>0.2616303056261929</v>
       </c>
       <c r="AE13" t="n">
         <v>0.6422666761464731</v>
@@ -3086,40 +3086,40 @@
         <v>0.1836846180953088</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.646025682971737</v>
+        <v>0.645773994487718</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.6503807000428432</v>
+        <v>0.6501396759102483</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.6505078267707173</v>
+        <v>0.6494780255915251</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6539755030122952</v>
+        <v>0.6530733702020363</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.6276337281900247</v>
+        <v>0.6277211111108926</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.6276204779299643</v>
+        <v>0.6277146121739214</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1924531559869483</v>
+        <v>0.1926972008744204</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1939398484373308</v>
+        <v>0.1939329596850139</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1879062119614442</v>
+        <v>0.1888006500870439</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1905268082885357</v>
+        <v>0.1911540038443325</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1769781189045742</v>
+        <v>0.1744574221720669</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1808487859153428</v>
+        <v>0.1774318404420081</v>
       </c>
     </row>
     <row r="14">
@@ -3180,40 +3180,40 @@
         <v>80.48814649249684</v>
       </c>
       <c r="S14" t="n">
-        <v>30.59461280487578</v>
+        <v>30.39624146913969</v>
       </c>
       <c r="T14" t="n">
-        <v>30.59461280487578</v>
+        <v>30.39624146913969</v>
       </c>
       <c r="U14" t="n">
-        <v>27.63306928851889</v>
+        <v>26.85798997223334</v>
       </c>
       <c r="V14" t="n">
-        <v>27.63306928851889</v>
+        <v>26.85798997223334</v>
       </c>
       <c r="W14" t="n">
-        <v>70.90422575071688</v>
+        <v>68.35640956995665</v>
       </c>
       <c r="X14" t="n">
-        <v>70.90422575071688</v>
+        <v>68.35640956995665</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.37271055720311</v>
+        <v>28.91996334579728</v>
       </c>
       <c r="Z14" t="n">
-        <v>28.37271055720311</v>
+        <v>28.91996334579728</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.99895748465328</v>
+        <v>22.87185749908456</v>
       </c>
       <c r="AB14" t="n">
-        <v>22.99895748465328</v>
+        <v>22.87185749908456</v>
       </c>
       <c r="AC14" t="n">
-        <v>48.86683150086641</v>
+        <v>51.92365020330365</v>
       </c>
       <c r="AD14" t="n">
-        <v>48.86683150086641</v>
+        <v>51.92365020330365</v>
       </c>
       <c r="AE14" t="n">
         <v>81.55049591214879</v>
@@ -3252,40 +3252,40 @@
         <v>109.2456684804866</v>
       </c>
       <c r="AQ14" t="n">
-        <v>64.6563424050708</v>
+        <v>64.4216910947254</v>
       </c>
       <c r="AR14" t="n">
-        <v>64.6563424050708</v>
+        <v>64.4216910947254</v>
       </c>
       <c r="AS14" t="n">
-        <v>60.4065416245404</v>
+        <v>60.2873248372114</v>
       </c>
       <c r="AT14" t="n">
-        <v>60.4065416245404</v>
+        <v>60.2873248372114</v>
       </c>
       <c r="AU14" t="n">
-        <v>88.19057748127815</v>
+        <v>87.84303046828474</v>
       </c>
       <c r="AV14" t="n">
-        <v>88.19057748127815</v>
+        <v>87.84303046828474</v>
       </c>
       <c r="AW14" t="n">
-        <v>75.15351948440511</v>
+        <v>75.60546972654137</v>
       </c>
       <c r="AX14" t="n">
-        <v>75.15351948440511</v>
+        <v>75.60546972654137</v>
       </c>
       <c r="AY14" t="n">
-        <v>69.95174418680006</v>
+        <v>69.36365451128424</v>
       </c>
       <c r="AZ14" t="n">
-        <v>69.95174418680006</v>
+        <v>69.36365451128424</v>
       </c>
       <c r="BA14" t="n">
-        <v>83.52338911910857</v>
+        <v>93.02444412515095</v>
       </c>
       <c r="BB14" t="n">
-        <v>83.52338911910857</v>
+        <v>93.02444412515095</v>
       </c>
     </row>
   </sheetData>
@@ -3632,40 +3632,40 @@
         <v>0.04915008364585627</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06953619465969463</v>
+        <v>0.06897328271628922</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05131380547233277</v>
+        <v>0.04960071385731069</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0715233337878558</v>
+        <v>0.07285569494472832</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05212475355267454</v>
+        <v>0.0533918199065242</v>
       </c>
       <c r="W2" t="n">
-        <v>0.07295112782925806</v>
+        <v>0.07182626978847573</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05706597593081297</v>
+        <v>0.056179774413045</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07437536720106119</v>
+        <v>0.0730797757604833</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05686687487829634</v>
+        <v>0.05557941256849297</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.07296660361147311</v>
+        <v>0.071194923527512</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.05446098443956204</v>
+        <v>0.05279056652688308</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.07079984135163042</v>
+        <v>0.07284067349771739</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.05473417098243316</v>
+        <v>0.05702282463261832</v>
       </c>
       <c r="AE2" t="n">
         <v>0.07586569279508426</v>
@@ -3704,40 +3704,40 @@
         <v>0.05520539854830608</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.06822674444731303</v>
+        <v>0.0662059616084294</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.05279903685750997</v>
+        <v>0.05050128586281488</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.06615851383255511</v>
+        <v>0.06693746933225175</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0506048098353189</v>
+        <v>0.05170022933433427</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.07033123614637127</v>
+        <v>0.07152260301266344</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.05787462003956323</v>
+        <v>0.06021581078286986</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.07115552764719868</v>
+        <v>0.07017025062749949</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.05561031665554395</v>
+        <v>0.05486094242313477</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.06945375425169109</v>
+        <v>0.06919946382413111</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.05375670879015293</v>
+        <v>0.05352045955083828</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.07077569452836374</v>
+        <v>0.07058252669817122</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.05695350234325258</v>
+        <v>0.05689646678441984</v>
       </c>
     </row>
     <row r="3">
@@ -3798,40 +3798,40 @@
         <v>0.05133528843596941</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07432659681268705</v>
+        <v>0.07256108529518296</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05278267106445242</v>
+        <v>0.05050363679147797</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07535740875843695</v>
+        <v>0.07706765915539576</v>
       </c>
       <c r="V3" t="n">
-        <v>0.05321362066510485</v>
+        <v>0.05465626846790012</v>
       </c>
       <c r="W3" t="n">
-        <v>0.08017843815104769</v>
+        <v>0.07825326875354618</v>
       </c>
       <c r="X3" t="n">
-        <v>0.06033620260677255</v>
+        <v>0.0591723818414001</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.08192266700893938</v>
+        <v>0.0779079105809917</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06002051584955091</v>
+        <v>0.05757450706193974</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.07846085011741799</v>
+        <v>0.07677036894112657</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.05654067756927516</v>
+        <v>0.0547213010757835</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.07694576013958243</v>
+        <v>0.08259723071776101</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.05734755905913208</v>
+        <v>0.06157651081577122</v>
       </c>
       <c r="AE3" t="n">
         <v>0.08803365267948055</v>
@@ -3870,40 +3870,40 @@
         <v>0.06145247575672601</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.07548049306314555</v>
+        <v>0.073116488605693</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.05555756105695724</v>
+        <v>0.05272401161944858</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.07359456278885285</v>
+        <v>0.07428027717781582</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0530502617062339</v>
+        <v>0.05436512747679885</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.07841409089462403</v>
+        <v>0.08119304718549712</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.06226563253857142</v>
+        <v>0.06615938311147281</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08278552298127356</v>
+        <v>0.08137457572274066</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.06068912138529527</v>
+        <v>0.05971528624827779</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.08020999810398233</v>
+        <v>0.07984246623698954</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.05809493350087132</v>
+        <v>0.05776944315888887</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.08089395422567336</v>
+        <v>0.08069535816960247</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.06197678494379074</v>
+        <v>0.06193755945368218</v>
       </c>
     </row>
     <row r="4">
@@ -3964,40 +3964,40 @@
         <v>0.04256089180137527</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0479233986582538</v>
+        <v>0.04967766775450277</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04839388034992367</v>
+        <v>0.05008829733538617</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04982603493175769</v>
+        <v>0.04953502138094365</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05069966821997141</v>
+        <v>0.05056147814467907</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04559596702549934</v>
+        <v>0.04627554272060139</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04609514453047053</v>
+        <v>0.04631443173449677</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.0456158416428561</v>
+        <v>0.04871811964646858</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0462840642836615</v>
+        <v>0.04896473193842449</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0477934693648121</v>
+        <v>0.04723695302668663</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.04808280971670085</v>
+        <v>0.04753657479137967</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0463515553631312</v>
+        <v>0.04269552371909915</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04651521415572296</v>
+        <v>0.04298274923526654</v>
       </c>
       <c r="AE4" t="n">
         <v>0.0413465122197102</v>
@@ -4036,40 +4036,40 @@
         <v>0.03787654061317734</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.04401656777144361</v>
+        <v>0.04369401955609856</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.04454578361254595</v>
+        <v>0.0442204340344893</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.04293799362143298</v>
+        <v>0.04339265554262468</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.04341203424877605</v>
+        <v>0.04380494364105339</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.04372614908182246</v>
+        <v>0.04232471279270948</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.04391084508743305</v>
+        <v>0.04226952344557491</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.04014183648973268</v>
+        <v>0.04016948552588982</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.04070988215384854</v>
+        <v>0.04055872263808386</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.04033823934278739</v>
+        <v>0.04035122290927123</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.04077890934871746</v>
+        <v>0.04077569802760155</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.04155888652178127</v>
+        <v>0.04148991410268626</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.04190281766027548</v>
+        <v>0.04182221861896633</v>
       </c>
     </row>
     <row r="5">
@@ -4130,40 +4130,40 @@
         <v>0.1428706593114027</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1425731592990609</v>
+        <v>0.1400021531417552</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1436808565084626</v>
+        <v>0.1439703084173721</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1466064148481377</v>
+        <v>0.1529363600228575</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1479576602739294</v>
+        <v>0.1646777909966745</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1287202574715037</v>
+        <v>0.1350967163492641</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1317173821875384</v>
+        <v>0.1445423687142814</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1022724274660187</v>
+        <v>0.1370493236364519</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1308276857642225</v>
+        <v>0.1488761486179204</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1365854343599385</v>
+        <v>0.1237126870433134</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1586614440542999</v>
+        <v>0.1470737433409762</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1527176372871303</v>
+        <v>0.1174992218256957</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1630019285346923</v>
+        <v>0.1405865046109477</v>
       </c>
       <c r="AE5" t="n">
         <v>0.08093924929351437</v>
@@ -4202,40 +4202,40 @@
         <v>0.06804685844541485</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.09475719891168126</v>
+        <v>0.09395148912332779</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.1040713050362363</v>
+        <v>0.1083465809315707</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.08903523783254572</v>
+        <v>0.08928990012458815</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1007655824760506</v>
+        <v>0.09978575631563766</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.09464526936562626</v>
+        <v>0.09430728334340613</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1058963710198472</v>
+        <v>0.101934819875687</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.05931517727853682</v>
+        <v>0.05869581767009043</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06568507615538666</v>
+        <v>0.06604093577860688</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.058495403478756</v>
+        <v>0.05849540347875611</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.07042137608959066</v>
+        <v>0.07042137608959058</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.05924177512428287</v>
+        <v>0.05924177512428266</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0740339864826421</v>
+        <v>0.07403398648264239</v>
       </c>
     </row>
     <row r="6">
@@ -4296,40 +4296,40 @@
         <v>0.05586547750117816</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06194188798497541</v>
+        <v>0.06928915964300224</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06449382566804547</v>
+        <v>0.07180780258425161</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06901467244556229</v>
+        <v>0.06955137299746166</v>
       </c>
       <c r="V6" t="n">
-        <v>0.07127807668703856</v>
+        <v>0.07153618260699997</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05589626747320792</v>
+        <v>0.05657035133446361</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05750226729782801</v>
+        <v>0.0585261338882872</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.04905134617444182</v>
+        <v>0.06220451380695095</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.05166416079654499</v>
+        <v>0.06309901534718057</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.06042300953685112</v>
+        <v>0.05834779359013855</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0609939325471198</v>
+        <v>0.05924150229959135</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.06335694232307959</v>
+        <v>0.0528552629048438</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.06400239102501032</v>
+        <v>0.0545004834353053</v>
       </c>
       <c r="AE6" t="n">
         <v>0.04802016614455199</v>
@@ -4368,28 +4368,28 @@
         <v>0.02892333925563347</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.05196700309961114</v>
+        <v>0.05107188446476452</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.05380897433866978</v>
+        <v>0.05308805465261082</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.04986173039019149</v>
+        <v>0.05005484137869237</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0514081836300622</v>
+        <v>0.05161727304742106</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.05035068424796455</v>
+        <v>0.05067861830558407</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.0516469081487764</v>
+        <v>0.05140231097380459</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0314194553341518</v>
+        <v>0.03135279876784138</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.03266210282179829</v>
+        <v>0.03259240912106048</v>
       </c>
       <c r="AY6" t="n">
         <v>0.03309215322466358</v>
@@ -4462,40 +4462,40 @@
         <v>0.1492460168571559</v>
       </c>
       <c r="S7" t="n">
-        <v>0.149790487933</v>
+        <v>0.1473024150603225</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1509875522939804</v>
+        <v>0.1517806118024075</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1543656926529915</v>
+        <v>0.1611545234265065</v>
       </c>
       <c r="V7" t="n">
-        <v>0.155807467865852</v>
+        <v>0.1748036935487493</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09877573396454364</v>
+        <v>0.09772138750732595</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1075631101895325</v>
+        <v>0.1115230346725763</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1053801239561301</v>
+        <v>0.1430251548170155</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1341410430683313</v>
+        <v>0.1557123165872092</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1426211637915022</v>
+        <v>0.128427861902765</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1653044667754222</v>
+        <v>0.1545078601982625</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1608133641501611</v>
+        <v>0.1218359048368384</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1733404226975557</v>
+        <v>0.1472450380111203</v>
       </c>
       <c r="AE7" t="n">
         <v>0.07427099871281419</v>
@@ -4534,28 +4534,28 @@
         <v>0.06781983506362017</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.07984633040516281</v>
+        <v>0.0796058594885366</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.09262254804583965</v>
+        <v>0.09425844247966415</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.07667578988856931</v>
+        <v>0.07688589917602472</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.08704250155261591</v>
+        <v>0.08703240858151301</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.07991340463527326</v>
+        <v>0.08306060801364633</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.09039502168794251</v>
+        <v>0.09150744185253733</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05107614181185827</v>
+        <v>0.05095907307743045</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.06462644714822224</v>
+        <v>0.06412521720242507</v>
       </c>
       <c r="AY7" t="n">
         <v>0.05671528422148275</v>
@@ -4628,40 +4628,40 @@
         <v>0.1579993549280034</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5657091363019795</v>
+        <v>0.5344009435266717</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1836661001759981</v>
+        <v>0.1432514987121181</v>
       </c>
       <c r="U8" t="n">
-        <v>0.5839887446719394</v>
+        <v>0.6143169801952792</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1913082214761993</v>
+        <v>0.2168910030491233</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6694810884503952</v>
+        <v>0.6353416483932101</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3176144881172173</v>
+        <v>0.296976205944072</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7004118712777591</v>
+        <v>0.6292173381660248</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3120163474346351</v>
+        <v>0.2686407512443085</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6390227330489749</v>
+        <v>0.6090450693375632</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.2503076320704958</v>
+        <v>0.2180442401728166</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.612155318915607</v>
+        <v>0.7123740535833555</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2646162338444344</v>
+        <v>0.3396091384625312</v>
       </c>
       <c r="AE8" t="n">
         <v>0.8087792852105341</v>
@@ -4700,40 +4700,40 @@
         <v>0.3374095982720633</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5861714249327168</v>
+        <v>0.544250029041602</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2328738170072268</v>
+        <v>0.1826258797106744</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.5527278206271399</v>
+        <v>0.5648877403249766</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1884113421722705</v>
+        <v>0.2117281376790469</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.6381935417654612</v>
+        <v>0.6874733671340365</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3518294811389596</v>
+        <v>0.4208781915816431</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.7157130805031481</v>
+        <v>0.6906924514514671</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.3238728721846492</v>
+        <v>0.3066036457316754</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.6700407478355994</v>
+        <v>0.6635232267496163</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.2778695844260209</v>
+        <v>0.2720975946812619</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.6821694878044144</v>
+        <v>0.6786477415307488</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.3467072850556047</v>
+        <v>0.3460116910626745</v>
       </c>
     </row>
     <row r="9">
@@ -4794,40 +4794,40 @@
         <v>0.04706770082946725</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1901529333915432</v>
+        <v>0.1896241730891852</v>
       </c>
       <c r="T9" t="n">
-        <v>0.06186151372038094</v>
+        <v>0.04983821831117551</v>
       </c>
       <c r="U9" t="n">
-        <v>0.198475923593919</v>
+        <v>0.1989729894454259</v>
       </c>
       <c r="V9" t="n">
-        <v>0.06555431694877344</v>
+        <v>0.06659264521387236</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2371471144698218</v>
+        <v>0.2176276403076132</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1111507493664694</v>
+        <v>0.09515745687103573</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3123997131641226</v>
+        <v>0.2236733808750556</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1103847751938696</v>
+        <v>0.08835480024522334</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2236044682107964</v>
+        <v>0.2325503876684937</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.07585645217854324</v>
+        <v>0.07047536899073974</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.185796163819666</v>
+        <v>0.2588543381739021</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.07551248563132816</v>
+        <v>0.1038316905092409</v>
       </c>
       <c r="AE9" t="n">
         <v>0.4131518749048416</v>
@@ -4866,40 +4866,40 @@
         <v>0.1878104095353545</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.2722880641003618</v>
+        <v>0.2531143639579244</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.09967729969197189</v>
+        <v>0.07453669139626058</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.2665576485695799</v>
+        <v>0.2745212963837033</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.08117175962521213</v>
+        <v>0.09294652343886053</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.2948456498389743</v>
+        <v>0.3085351606474778</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.1458891338267797</v>
+        <v>0.174526433739593</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4843623296649272</v>
+        <v>0.472687178281851</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.2007278857114375</v>
+        <v>0.1882991523430934</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.4620579130705308</v>
+        <v>0.4577107265834356</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.1609059524718578</v>
+        <v>0.1575511580552581</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4785508920488901</v>
+        <v>0.4752902228709802</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.196234362586707</v>
+        <v>0.1954639656171183</v>
       </c>
     </row>
     <row r="10">
@@ -4960,40 +4960,40 @@
         <v>0.07507331522251603</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7012114181794631</v>
+        <v>0.6699862631794873</v>
       </c>
       <c r="T10" t="n">
-        <v>0.6869578095640227</v>
+        <v>0.6523501749697809</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6746924229476143</v>
+        <v>0.6815713375461864</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6649071971141928</v>
+        <v>0.6722085430477823</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5466445202471468</v>
+        <v>0.5537427759439341</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5459823606836356</v>
+        <v>0.5463360648382084</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.08408594786328072</v>
+        <v>0.08068868133768992</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08363094039275998</v>
+        <v>0.07973832080624521</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.07431368548231765</v>
+        <v>0.08173236074793866</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.07542132787968192</v>
+        <v>0.08168081296735674</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.07136432862359221</v>
+        <v>0.07290907991172957</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.06515992277438643</v>
+        <v>0.07519418886557405</v>
       </c>
       <c r="AE10" t="n">
         <v>0.3192966479807463</v>
@@ -5032,40 +5032,40 @@
         <v>0.03843312874322502</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4243704511113188</v>
+        <v>0.4270239772890879</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.4283173554603152</v>
+        <v>0.4320095359178633</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.4244194697467515</v>
+        <v>0.4235899913880619</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4290951258391187</v>
+        <v>0.4259633929911247</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.4735132843149955</v>
+        <v>0.4126037603084273</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.4755371097784107</v>
+        <v>0.4139272976260843</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.03280059753700615</v>
+        <v>0.03575584718795888</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.03454302496907291</v>
+        <v>0.03656493929156746</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.03538454249827316</v>
+        <v>0.03546832108561537</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.03574880969032057</v>
+        <v>0.03569665902837782</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.03945510825403897</v>
+        <v>0.03949096390006535</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.04208415369525242</v>
+        <v>0.04243896768953881</v>
       </c>
     </row>
     <row r="11">
@@ -5126,40 +5126,40 @@
         <v>0.442539508309789</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4888583360639568</v>
+        <v>0.4839972097583598</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4888583360639568</v>
+        <v>0.4839972097583598</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4745273661661434</v>
+        <v>0.4735661708013138</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4745273661661434</v>
+        <v>0.4735661708013138</v>
       </c>
       <c r="W11" t="n">
-        <v>0.4536901123256525</v>
+        <v>0.4588665227406244</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4536901123256525</v>
+        <v>0.4588665227406244</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5149375119816944</v>
+        <v>0.516698067319088</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5149375119816944</v>
+        <v>0.516698067319088</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5079049519014444</v>
+        <v>0.5034192241576922</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.5079049519014444</v>
+        <v>0.5034192241576922</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.4718294782174679</v>
+        <v>0.4587813285051305</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.4718294782174679</v>
+        <v>0.4587813285051305</v>
       </c>
       <c r="AE11" t="n">
         <v>0.31149627623441</v>
@@ -5198,40 +5198,40 @@
         <v>0.3218659178479311</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.3280598997839189</v>
+        <v>0.3270283648140877</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.3280598997839189</v>
+        <v>0.3270283648140877</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.3255786895008671</v>
+        <v>0.3265482628962046</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.3255786895008671</v>
+        <v>0.3265482628962046</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3500227996673361</v>
+        <v>0.3340281353228796</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.3500227996673361</v>
+        <v>0.3340281353228796</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.3407167553674957</v>
+        <v>0.3417808865052032</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.3407167553674957</v>
+        <v>0.3417808865052032</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.3394405094527765</v>
+        <v>0.3391098772093696</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.3394405094527765</v>
+        <v>0.3391098772093696</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.370574886630037</v>
+        <v>0.3701111060417811</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.370574886630037</v>
+        <v>0.3701111060417811</v>
       </c>
     </row>
     <row r="12">
@@ -5292,40 +5292,40 @@
         <v>0.2592314717855644</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2502749442007013</v>
+        <v>0.248734187291844</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2502749442007013</v>
+        <v>0.248734187291844</v>
       </c>
       <c r="U12" t="n">
-        <v>0.2432361860687976</v>
+        <v>0.2481427416425072</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2432361860687976</v>
+        <v>0.2481427416425072</v>
       </c>
       <c r="W12" t="n">
-        <v>0.2415003410365985</v>
+        <v>0.235963220951388</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2415003410365985</v>
+        <v>0.235963220951388</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2589131324192354</v>
+        <v>0.2618661824333154</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.2589131324192354</v>
+        <v>0.2618661824333154</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.262525186635153</v>
+        <v>0.2602382308477645</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.262525186635153</v>
+        <v>0.2602382308477645</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2646443917673662</v>
+        <v>0.2647110522445683</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.2646443917673662</v>
+        <v>0.2647110522445683</v>
       </c>
       <c r="AE12" t="n">
         <v>0.1926902109265513</v>
@@ -5364,40 +5364,40 @@
         <v>0.1928469038403617</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.2015182492504485</v>
+        <v>0.2012426925366393</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.2015182492504485</v>
+        <v>0.2012426925366393</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.2001640278265688</v>
+        <v>0.2009790121692069</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2001640278265688</v>
+        <v>0.2009790121692069</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.1865245837502799</v>
+        <v>0.1856145835666895</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.1865245837502799</v>
+        <v>0.1856145835666895</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.2007687469740302</v>
+        <v>0.200074968902889</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2007687469740302</v>
+        <v>0.200074968902889</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2006484030834543</v>
+        <v>0.2006327710106813</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2006484030834543</v>
+        <v>0.2006327710106813</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.2069524543249557</v>
+        <v>0.2070507250199523</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.2069524543249557</v>
+        <v>0.2070507250199523</v>
       </c>
     </row>
     <row r="13">
@@ -5458,40 +5458,40 @@
         <v>0.2739951007272142</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8373836744166099</v>
+        <v>0.8185268860455881</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8288291799665496</v>
+        <v>0.8076819763804199</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8213966294961375</v>
+        <v>0.8255733386842056</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8154184184295776</v>
+        <v>0.8198832496445957</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7393541237101116</v>
+        <v>0.7441389493528306</v>
       </c>
       <c r="X13" t="n">
-        <v>0.7389061920728744</v>
+        <v>0.7391454963931045</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2899757711659382</v>
+        <v>0.2840575317390648</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.2891901457393729</v>
+        <v>0.2823797457436444</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.2726053658355194</v>
+        <v>0.2858887209176652</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.2746294373873314</v>
+        <v>0.2857985531232737</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.2671410275932772</v>
+        <v>0.2700168141278051</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.255264417368317</v>
+        <v>0.2742155882979192</v>
       </c>
       <c r="AE13" t="n">
         <v>0.5650634017353684</v>
@@ -5530,40 +5530,40 @@
         <v>0.1960436909039033</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.651437219623901</v>
+        <v>0.6534707164740345</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.6544595903952476</v>
+        <v>0.6572743231846679</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.6514748419906572</v>
+        <v>0.650837914835992</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.6550535289876078</v>
+        <v>0.6526587109593532</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.6881230153940466</v>
+        <v>0.6423424011447693</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.6895919879018396</v>
+        <v>0.6433718191109125</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1811093524283222</v>
+        <v>0.189092165855593</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.185857539446407</v>
+        <v>0.1912196101124765</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.1881077948897201</v>
+        <v>0.1883303509411467</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.1890735562957458</v>
+        <v>0.1889355949215976</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1986330995932929</v>
+        <v>0.1987233350667847</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2051442265706064</v>
+        <v>0.2060072030040183</v>
       </c>
     </row>
     <row r="14">
@@ -5624,40 +5624,40 @@
         <v>203.1342588063965</v>
       </c>
       <c r="S14" t="n">
-        <v>172.6863771265313</v>
+        <v>183.7674866215652</v>
       </c>
       <c r="T14" t="n">
-        <v>172.6863771265313</v>
+        <v>183.7674866215652</v>
       </c>
       <c r="U14" t="n">
-        <v>183.6111489302679</v>
+        <v>184.0227260898816</v>
       </c>
       <c r="V14" t="n">
-        <v>183.6111489302679</v>
+        <v>184.0227260898816</v>
       </c>
       <c r="W14" t="n">
-        <v>149.9425093750914</v>
+        <v>147.8176618203237</v>
       </c>
       <c r="X14" t="n">
-        <v>149.9425093750914</v>
+        <v>147.8176618203237</v>
       </c>
       <c r="Y14" t="n">
-        <v>164.7201374457903</v>
+        <v>164.8267943251702</v>
       </c>
       <c r="Z14" t="n">
-        <v>164.7201374457903</v>
+        <v>164.8267943251702</v>
       </c>
       <c r="AA14" t="n">
-        <v>174.3876797344212</v>
+        <v>173.6910303222926</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.3876797344212</v>
+        <v>173.6910303222926</v>
       </c>
       <c r="AC14" t="n">
-        <v>151.5176318923575</v>
+        <v>148.9023059867162</v>
       </c>
       <c r="AD14" t="n">
-        <v>151.5176318923575</v>
+        <v>148.9023059867162</v>
       </c>
       <c r="AE14" t="n">
         <v>275.8861643826874</v>
@@ -5696,40 +5696,40 @@
         <v>150.4954778485329</v>
       </c>
       <c r="AQ14" t="n">
-        <v>146.1902823092215</v>
+        <v>149.0931670668846</v>
       </c>
       <c r="AR14" t="n">
-        <v>146.1902823092215</v>
+        <v>149.0931670668846</v>
       </c>
       <c r="AS14" t="n">
-        <v>147.6562773924127</v>
+        <v>144.5345732115545</v>
       </c>
       <c r="AT14" t="n">
-        <v>147.6562773924127</v>
+        <v>144.5345732115545</v>
       </c>
       <c r="AU14" t="n">
-        <v>117.6709976346168</v>
+        <v>106.6467766350208</v>
       </c>
       <c r="AV14" t="n">
-        <v>117.6709976346168</v>
+        <v>106.6467766350208</v>
       </c>
       <c r="AW14" t="n">
-        <v>146.5311041286916</v>
+        <v>144.4153677204015</v>
       </c>
       <c r="AX14" t="n">
-        <v>146.5311041286916</v>
+        <v>144.4153677204015</v>
       </c>
       <c r="AY14" t="n">
-        <v>148.1894726021721</v>
+        <v>148.050503658074</v>
       </c>
       <c r="AZ14" t="n">
-        <v>148.1894726021721</v>
+        <v>148.050503658074</v>
       </c>
       <c r="BA14" t="n">
-        <v>130.235209867425</v>
+        <v>128.9664176402813</v>
       </c>
       <c r="BB14" t="n">
-        <v>130.235209867425</v>
+        <v>128.9664176402813</v>
       </c>
     </row>
   </sheetData>
@@ -7772,40 +7772,40 @@
         <v>0.04281234355859342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06620703597255373</v>
+        <v>0.0649576161760137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06296691876697436</v>
+        <v>0.06174193689618201</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06953619465969463</v>
+        <v>0.06897328271628922</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05131380547233277</v>
+        <v>0.04960071385731069</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0662604069929742</v>
+        <v>0.06630479621518104</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06333340219690387</v>
+        <v>0.06345968182661799</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0715233337878558</v>
+        <v>0.07285569494472832</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05212475355267454</v>
+        <v>0.0533918199065242</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06775926992461367</v>
+        <v>0.06699577525122824</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06025394494932002</v>
+        <v>0.05976404552881864</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07295112782925806</v>
+        <v>0.07182626978847573</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05706597593081297</v>
+        <v>0.056179774413045</v>
       </c>
     </row>
     <row r="3">
@@ -7836,40 +7836,40 @@
         <v>0.04289214058796988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0819558367737479</v>
+        <v>0.07977528838412684</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07625691629754575</v>
+        <v>0.07412735560268241</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07432659681268705</v>
+        <v>0.07256108529518296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05278267106445242</v>
+        <v>0.05050363679147797</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07845653007501346</v>
+        <v>0.07853570344390515</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07393540664747672</v>
+        <v>0.07414817838954357</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07535740875843695</v>
+        <v>0.07706765915539576</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05321362066510485</v>
+        <v>0.05465626846790012</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08523137860388816</v>
+        <v>0.08369048955835943</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07241248657877972</v>
+        <v>0.07155832550137992</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08017843815104769</v>
+        <v>0.07825326875354618</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06033620260677255</v>
+        <v>0.0591723818414001</v>
       </c>
     </row>
     <row r="4">
@@ -7900,40 +7900,40 @@
         <v>0.04674845873139948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03392516852649528</v>
+        <v>0.03401938569273526</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03423914367984848</v>
+        <v>0.03436014422450861</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0479233986582538</v>
+        <v>0.04967766775450277</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04839388034992367</v>
+        <v>0.05008829733538617</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0373034843959929</v>
+        <v>0.03729101495992461</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03741760342083381</v>
+        <v>0.03739111358461582</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04982603493175769</v>
+        <v>0.04953502138094365</v>
       </c>
       <c r="P4" t="n">
-        <v>0.05069966821997141</v>
+        <v>0.05056147814467907</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03337405912366239</v>
+        <v>0.03357692403404116</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03352689171186757</v>
+        <v>0.03356160416494638</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04559596702549934</v>
+        <v>0.04627554272060139</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04609514453047053</v>
+        <v>0.04631443173449677</v>
       </c>
     </row>
     <row r="5">
@@ -7964,40 +7964,40 @@
         <v>0.2492855966251576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09269335105271286</v>
+        <v>0.09299748460595154</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09470210025302161</v>
+        <v>0.09514297768578062</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1425731592990609</v>
+        <v>0.1400021531417552</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1436808565084626</v>
+        <v>0.1439703084173721</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1116005486340156</v>
+        <v>0.1116257237078178</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1123590628977585</v>
+        <v>0.1123843470123844</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1466064148481377</v>
+        <v>0.1529363600228575</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1479576602739294</v>
+        <v>0.1646777909966745</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08652689378324728</v>
+        <v>0.08679184744388049</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08868188960062942</v>
+        <v>0.08852264319641022</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1287202574715037</v>
+        <v>0.1350967163492641</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1317173821875384</v>
+        <v>0.1445423687142814</v>
       </c>
     </row>
     <row r="6">
@@ -8028,40 +8028,40 @@
         <v>0.060780642682189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0457368029894516</v>
+        <v>0.04616028208930504</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0467363734874894</v>
+        <v>0.04724521987488963</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06194188798497541</v>
+        <v>0.06928915964300224</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06449382566804547</v>
+        <v>0.07180780258425161</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05627797694971794</v>
+        <v>0.05598622677098072</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0564689156026208</v>
+        <v>0.05612565222257831</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06901467244556229</v>
+        <v>0.06955137299746166</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07127807668703856</v>
+        <v>0.07153618260699997</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.04253481922767363</v>
+        <v>0.0479495266631571</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0437177636324009</v>
+        <v>0.04869498716075587</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05589626747320792</v>
+        <v>0.05657035133446361</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05750226729782801</v>
+        <v>0.0585261338882872</v>
       </c>
     </row>
     <row r="7">
@@ -8092,40 +8092,40 @@
         <v>0.2739553467247042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07925730812119491</v>
+        <v>0.0795673505722793</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08394809829371974</v>
+        <v>0.08447281664768884</v>
       </c>
       <c r="K7" t="n">
-        <v>0.149790487933</v>
+        <v>0.1473024150603225</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1509875522939804</v>
+        <v>0.1517806118024075</v>
       </c>
       <c r="M7" t="n">
-        <v>0.09817312818306334</v>
+        <v>0.09819860476275455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1023799782743283</v>
+        <v>0.1024098299674606</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1543656926529915</v>
+        <v>0.1611545234265065</v>
       </c>
       <c r="P7" t="n">
-        <v>0.155807467865852</v>
+        <v>0.1748036935487493</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07229915727720641</v>
+        <v>0.07145675109641147</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07965350550831363</v>
+        <v>0.07791243604338116</v>
       </c>
       <c r="S7" t="n">
-        <v>0.09877573396454364</v>
+        <v>0.09772138750732595</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1075631101895325</v>
+        <v>0.1115230346725763</v>
       </c>
     </row>
     <row r="8">
@@ -8156,40 +8156,40 @@
         <v>0.008275211055357412</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7010000778007075</v>
+        <v>0.6623319475385748</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5999399039581013</v>
+        <v>0.5621759493758305</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5657091363019795</v>
+        <v>0.5344009435266717</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1836661001759981</v>
+        <v>0.1432514987121181</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6389461248144447</v>
+        <v>0.6403501230729411</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5587720775613353</v>
+        <v>0.5625452043020686</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5839887446719394</v>
+        <v>0.6143169801952792</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1913082214761993</v>
+        <v>0.2168910030491233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7590859605858808</v>
+        <v>0.7317610460755672</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5317658107545598</v>
+        <v>0.5166187899578881</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6694810884503952</v>
+        <v>0.6353416483932101</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3176144881172173</v>
+        <v>0.296976205944072</v>
       </c>
     </row>
     <row r="9">
@@ -8220,40 +8220,40 @@
         <v>0.001551848031945043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2565615063690082</v>
+        <v>0.2422874777248898</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2169057340440612</v>
+        <v>0.2030254588404635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1901529333915432</v>
+        <v>0.1896241730891852</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06186151372038094</v>
+        <v>0.04983821831117551</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2135734733263752</v>
+        <v>0.2139229670896208</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1860812244389281</v>
+        <v>0.1871630008067019</v>
       </c>
       <c r="O9" t="n">
-        <v>0.198475923593919</v>
+        <v>0.1989729894454259</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06555431694877344</v>
+        <v>0.06659264521387236</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.292785036199233</v>
+        <v>0.283094389378414</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2010382822640605</v>
+        <v>0.1958657661664053</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2371471144698218</v>
+        <v>0.2176276403076132</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1111507493664694</v>
+        <v>0.09515745687103573</v>
       </c>
     </row>
     <row r="10">
@@ -8284,40 +8284,40 @@
         <v>0.365271190781277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.558454482756223</v>
+        <v>0.5545106067720953</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5563759713666752</v>
+        <v>0.5524904537439905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7012114181794631</v>
+        <v>0.6699862631794873</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6869578095640227</v>
+        <v>0.6523501749697809</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5634040561452922</v>
+        <v>0.5638137357493416</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5651716739569859</v>
+        <v>0.5656407763127242</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6746924229476143</v>
+        <v>0.6815713375461864</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6649071971141928</v>
+        <v>0.6722085430477823</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6167866601298613</v>
+        <v>0.6381629224850431</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6133122972762852</v>
+        <v>0.6315701033308945</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5466445202471468</v>
+        <v>0.5537427759439341</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5459823606836356</v>
+        <v>0.5463360648382084</v>
       </c>
     </row>
     <row r="11">
@@ -8348,40 +8348,40 @@
         <v>0.4217011574688558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3694757054632264</v>
+        <v>0.3644293975435386</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3694757054632264</v>
+        <v>0.3644293975435386</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4888583360639568</v>
+        <v>0.4839972097583598</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4888583360639568</v>
+        <v>0.4839972097583598</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3844630490638277</v>
+        <v>0.3833734238033782</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3844630490638277</v>
+        <v>0.3833734238033782</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4745273661661434</v>
+        <v>0.4735661708013138</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4745273661661434</v>
+        <v>0.4735661708013138</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4092406993485928</v>
+        <v>0.4090876272565472</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4092406993485928</v>
+        <v>0.4090876272565472</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4536901123256525</v>
+        <v>0.4588665227406244</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4536901123256525</v>
+        <v>0.4588665227406244</v>
       </c>
     </row>
     <row r="12">
@@ -8412,40 +8412,40 @@
         <v>0.2339236433475347</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2179083097872535</v>
+        <v>0.2136564768339546</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2179083097872535</v>
+        <v>0.2136564768339546</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2502749442007013</v>
+        <v>0.248734187291844</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2502749442007013</v>
+        <v>0.248734187291844</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2138585962863004</v>
+        <v>0.2138954922197233</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2138585962863004</v>
+        <v>0.2138954922197233</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2432361860687976</v>
+        <v>0.2481427416425072</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2432361860687976</v>
+        <v>0.2481427416425072</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2424891188997595</v>
+        <v>0.2424321942783848</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2424891188997595</v>
+        <v>0.2424321942783848</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2415003410365985</v>
+        <v>0.235963220951388</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2415003410365985</v>
+        <v>0.235963220951388</v>
       </c>
     </row>
     <row r="13">
@@ -8476,40 +8476,40 @@
         <v>0.6043766960938161</v>
       </c>
       <c r="I13" t="n">
-        <v>0.747298121740061</v>
+        <v>0.7446546896193532</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7459061411241199</v>
+        <v>0.7432970158314847</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8373836744166099</v>
+        <v>0.8185268860455881</v>
       </c>
       <c r="L13" t="n">
-        <v>0.8288291799665496</v>
+        <v>0.8076819763804199</v>
       </c>
       <c r="M13" t="n">
-        <v>0.750602462123122</v>
+        <v>0.7508753130509359</v>
       </c>
       <c r="N13" t="n">
-        <v>0.7517790060629428</v>
+        <v>0.7520909361990239</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8213966294961375</v>
+        <v>0.8255733386842056</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8154184184295776</v>
+        <v>0.8198832496445957</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7853576638257639</v>
+        <v>0.7988510014295803</v>
       </c>
       <c r="R13" t="n">
-        <v>0.7831425778721812</v>
+        <v>0.7947138499679586</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7393541237101116</v>
+        <v>0.7441389493528306</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7389061920728744</v>
+        <v>0.7391454963931045</v>
       </c>
     </row>
     <row r="14">
@@ -8540,40 +8540,40 @@
         <v>449.4252735672196</v>
       </c>
       <c r="I14" t="n">
-        <v>30.59461280487578</v>
+        <v>30.39624146913969</v>
       </c>
       <c r="J14" t="n">
-        <v>30.59461280487578</v>
+        <v>30.39624146913969</v>
       </c>
       <c r="K14" t="n">
-        <v>172.6863771265313</v>
+        <v>183.7674866215652</v>
       </c>
       <c r="L14" t="n">
-        <v>172.6863771265313</v>
+        <v>183.7674866215652</v>
       </c>
       <c r="M14" t="n">
-        <v>27.63306928851889</v>
+        <v>26.85798997223334</v>
       </c>
       <c r="N14" t="n">
-        <v>27.63306928851889</v>
+        <v>26.85798997223334</v>
       </c>
       <c r="O14" t="n">
-        <v>183.6111489302679</v>
+        <v>184.0227260898816</v>
       </c>
       <c r="P14" t="n">
-        <v>183.6111489302679</v>
+        <v>184.0227260898816</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.90422575071688</v>
+        <v>68.35640956995665</v>
       </c>
       <c r="R14" t="n">
-        <v>70.90422575071688</v>
+        <v>68.35640956995665</v>
       </c>
       <c r="S14" t="n">
-        <v>149.9425093750914</v>
+        <v>147.8176618203237</v>
       </c>
       <c r="T14" t="n">
-        <v>149.9425093750914</v>
+        <v>147.8176618203237</v>
       </c>
     </row>
   </sheetData>
@@ -8720,40 +8720,40 @@
         <v>0.04281234355859342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06453079014587138</v>
+        <v>0.06462468303465685</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0615216625318884</v>
+        <v>0.06155734408929425</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07437536720106119</v>
+        <v>0.0730797757604833</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05686687487829634</v>
+        <v>0.05557941256849297</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06438044500901685</v>
+        <v>0.06456131251404473</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06194095876149608</v>
+        <v>0.06213491566730855</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07296660361147311</v>
+        <v>0.071194923527512</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05446098443956204</v>
+        <v>0.05279056652688308</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06687556675056272</v>
+        <v>0.06673345725817281</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06168728856930805</v>
+        <v>0.0612220743158991</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07079984135163042</v>
+        <v>0.07284067349771739</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05473417098243316</v>
+        <v>0.05702282463261832</v>
       </c>
     </row>
     <row r="3">
@@ -8784,40 +8784,40 @@
         <v>0.04289214058796988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07823065335000916</v>
+        <v>0.07841771985716244</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07348551223663195</v>
+        <v>0.07354409569396467</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08192266700893938</v>
+        <v>0.0779079105809917</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06002051584955091</v>
+        <v>0.05757450706193974</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07679714781014506</v>
+        <v>0.07722930171916058</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07306470187008353</v>
+        <v>0.07350168775124304</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07846085011741799</v>
+        <v>0.07677036894112657</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05654067756927516</v>
+        <v>0.0547213010757835</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08047869009491232</v>
+        <v>0.08016076403453493</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07252854363160557</v>
+        <v>0.0717389432689076</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07694576013958243</v>
+        <v>0.08259723071776101</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05734755905913208</v>
+        <v>0.06157651081577122</v>
       </c>
     </row>
     <row r="4">
@@ -8848,40 +8848,40 @@
         <v>0.04674845873139948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0348147524181084</v>
+        <v>0.03478091381995961</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03467026184149988</v>
+        <v>0.0346696521639291</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0456158416428561</v>
+        <v>0.04871811964646858</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0462840642836615</v>
+        <v>0.04896473193842449</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03602007613102816</v>
+        <v>0.03586587312332168</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03591814935020964</v>
+        <v>0.03576503438952523</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0477934693648121</v>
+        <v>0.04723695302668663</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04808280971670085</v>
+        <v>0.04753657479137967</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03623277495406624</v>
+        <v>0.03632567466654817</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03608268431972391</v>
+        <v>0.03615967412216915</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0463515553631312</v>
+        <v>0.04269552371909915</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04651521415572296</v>
+        <v>0.04298274923526654</v>
       </c>
     </row>
     <row r="5">
@@ -8912,40 +8912,40 @@
         <v>0.2492855966251576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1125774678342902</v>
+        <v>0.1123938076770421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1146369131230594</v>
+        <v>0.1144458665004733</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1022724274660187</v>
+        <v>0.1370493236364519</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1308276857642225</v>
+        <v>0.1488761486179204</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1201564200674133</v>
+        <v>0.1172069074654866</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1215730473109412</v>
+        <v>0.1185112549511563</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1365854343599385</v>
+        <v>0.1237126870433134</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1586614440542999</v>
+        <v>0.1470737433409762</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1324424681215092</v>
+        <v>0.132460841672378</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1341680812854199</v>
+        <v>0.1346151345558149</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1527176372871303</v>
+        <v>0.1174992218256957</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1630019285346923</v>
+        <v>0.1405865046109477</v>
       </c>
     </row>
     <row r="6">
@@ -8976,40 +8976,40 @@
         <v>0.060780642682189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04358165460808251</v>
+        <v>0.04324713928438012</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04366232085785453</v>
+        <v>0.04332025675415324</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04905134617444182</v>
+        <v>0.06220451380695095</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05166416079654499</v>
+        <v>0.06309901534718057</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04687445194410098</v>
+        <v>0.04634383275007083</v>
       </c>
       <c r="N6" t="n">
-        <v>0.04694056417422485</v>
+        <v>0.04640884233980372</v>
       </c>
       <c r="O6" t="n">
-        <v>0.06042300953685112</v>
+        <v>0.05834779359013855</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0609939325471198</v>
+        <v>0.05924150229959135</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.05154544251543352</v>
+        <v>0.05178741734826316</v>
       </c>
       <c r="R6" t="n">
-        <v>0.05169747477796063</v>
+        <v>0.05190907533973924</v>
       </c>
       <c r="S6" t="n">
-        <v>0.06335694232307959</v>
+        <v>0.0528552629048438</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06400239102501032</v>
+        <v>0.0545004834353053</v>
       </c>
     </row>
     <row r="7">
@@ -9040,40 +9040,40 @@
         <v>0.2739553467247042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1126441373456121</v>
+        <v>0.1124224959168405</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1150160467009419</v>
+        <v>0.1147665694010936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1053801239561301</v>
+        <v>0.1430251548170155</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1341410430683313</v>
+        <v>0.1557123165872092</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1205592108368351</v>
+        <v>0.1173875568464613</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1222305065295953</v>
+        <v>0.1189524430914749</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1426211637915022</v>
+        <v>0.128427861902765</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1653044667754222</v>
+        <v>0.1545078601982625</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1351514183028661</v>
+        <v>0.1351706549315169</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1371771598199603</v>
+        <v>0.1376885472602768</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1608133641501611</v>
+        <v>0.1218359048368384</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1733404226975557</v>
+        <v>0.1472450380111203</v>
       </c>
     </row>
     <row r="8">
@@ -9104,40 +9104,40 @@
         <v>0.008275211055357412</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6349406046126351</v>
+        <v>0.6382578949331412</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5507940038962176</v>
+        <v>0.5518328768559418</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7004118712777591</v>
+        <v>0.6292173381660248</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3120163474346351</v>
+        <v>0.2686407512443085</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6095199447406537</v>
+        <v>0.6171834222982446</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5433316837996762</v>
+        <v>0.5510808477511927</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6390227330489749</v>
+        <v>0.6090450693375632</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2503076320704958</v>
+        <v>0.2180442401728166</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.674805520291522</v>
+        <v>0.6691676695678626</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5338238752569894</v>
+        <v>0.5198217234014471</v>
       </c>
       <c r="S8" t="n">
-        <v>0.612155318915607</v>
+        <v>0.7123740535833555</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2646162338444344</v>
+        <v>0.3396091384625312</v>
       </c>
     </row>
     <row r="9">
@@ -9168,40 +9168,40 @@
         <v>0.001551848031945043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1963563435476371</v>
+        <v>0.1975125969783555</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1665796104899543</v>
+        <v>0.1671694616697816</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3123997131641226</v>
+        <v>0.2236733808750556</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1103847751938696</v>
+        <v>0.08835480024522334</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1827197814367362</v>
+        <v>0.1888610730940456</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1605246310516831</v>
+        <v>0.1663084698525321</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2236044682107964</v>
+        <v>0.2325503876684937</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07585645217854324</v>
+        <v>0.07047536899073974</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1846090374278785</v>
+        <v>0.1835105889045797</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1435646853460877</v>
+        <v>0.1396320271256507</v>
       </c>
       <c r="S9" t="n">
-        <v>0.185796163819666</v>
+        <v>0.2588543381739021</v>
       </c>
       <c r="T9" t="n">
-        <v>0.07551248563132816</v>
+        <v>0.1038316905092409</v>
       </c>
     </row>
     <row r="10">
@@ -9232,40 +9232,40 @@
         <v>0.365271190781277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06604942894236066</v>
+        <v>0.06653841408199135</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0638963946049933</v>
+        <v>0.0643678742810363</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08408594786328072</v>
+        <v>0.08068868133768992</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08363094039275998</v>
+        <v>0.07973832080624521</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06758866404387376</v>
+        <v>0.06689398180343009</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06632198341154583</v>
+        <v>0.06591404432673609</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07431368548231765</v>
+        <v>0.08173236074793866</v>
       </c>
       <c r="P10" t="n">
-        <v>0.07542132787968192</v>
+        <v>0.08168081296735674</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.07384332045643605</v>
+        <v>0.07071706853743365</v>
       </c>
       <c r="R10" t="n">
-        <v>0.07146826844739751</v>
+        <v>0.0684504168220551</v>
       </c>
       <c r="S10" t="n">
-        <v>0.07136432862359221</v>
+        <v>0.07290907991172957</v>
       </c>
       <c r="T10" t="n">
-        <v>0.06515992277438643</v>
+        <v>0.07519418886557405</v>
       </c>
     </row>
     <row r="11">
@@ -9296,40 +9296,40 @@
         <v>0.4217011574688558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4148085727561674</v>
+        <v>0.4164541969919204</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4148085727561674</v>
+        <v>0.4164541969919204</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5149375119816944</v>
+        <v>0.516698067319088</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5149375119816944</v>
+        <v>0.516698067319088</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4065285810794912</v>
+        <v>0.4054502834887002</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4065285810794912</v>
+        <v>0.4054502834887002</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5079049519014444</v>
+        <v>0.5034192241576922</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5079049519014444</v>
+        <v>0.5034192241576922</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4483918192208907</v>
+        <v>0.4485194383925314</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4483918192208907</v>
+        <v>0.4485194383925314</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4718294782174679</v>
+        <v>0.4587813285051305</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4718294782174679</v>
+        <v>0.4587813285051305</v>
       </c>
     </row>
     <row r="12">
@@ -9360,40 +9360,40 @@
         <v>0.2339236433475347</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2597554005250952</v>
+        <v>0.2614579700048983</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2597554005250952</v>
+        <v>0.2614579700048983</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2589131324192354</v>
+        <v>0.2618661824333154</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2589131324192354</v>
+        <v>0.2618661824333154</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2643418408179718</v>
+        <v>0.2640078070843803</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2643418408179718</v>
+        <v>0.2640078070843803</v>
       </c>
       <c r="O12" t="n">
-        <v>0.262525186635153</v>
+        <v>0.2602382308477645</v>
       </c>
       <c r="P12" t="n">
-        <v>0.262525186635153</v>
+        <v>0.2602382308477645</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2658801354382527</v>
+        <v>0.2650645054623035</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2658801354382527</v>
+        <v>0.2650645054623035</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2646443917673662</v>
+        <v>0.2647110522445683</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2646443917673662</v>
+        <v>0.2647110522445683</v>
       </c>
     </row>
     <row r="13">
@@ -9424,40 +9424,40 @@
         <v>0.6043766960938161</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2570008345168567</v>
+        <v>0.2579504101217737</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2527773617335882</v>
+        <v>0.2537082463796482</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2899757711659382</v>
+        <v>0.2840575317390648</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2891901457393729</v>
+        <v>0.2823797457436444</v>
       </c>
       <c r="M13" t="n">
-        <v>0.25997819917038</v>
+        <v>0.2586387090198031</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2575305485016204</v>
+        <v>0.2567373060673814</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2726053658355194</v>
+        <v>0.2858887209176652</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2746294373873314</v>
+        <v>0.2857985531232737</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2717412748487725</v>
+        <v>0.2659268104900925</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2673354979186221</v>
+        <v>0.2616303056261929</v>
       </c>
       <c r="S13" t="n">
-        <v>0.2671410275932772</v>
+        <v>0.2700168141278051</v>
       </c>
       <c r="T13" t="n">
-        <v>0.255264417368317</v>
+        <v>0.2742155882979192</v>
       </c>
     </row>
     <row r="14">
@@ -9488,40 +9488,40 @@
         <v>449.4252735672196</v>
       </c>
       <c r="I14" t="n">
-        <v>28.37271055720311</v>
+        <v>28.91996334579728</v>
       </c>
       <c r="J14" t="n">
-        <v>28.37271055720311</v>
+        <v>28.91996334579728</v>
       </c>
       <c r="K14" t="n">
-        <v>164.7201374457903</v>
+        <v>164.8267943251702</v>
       </c>
       <c r="L14" t="n">
-        <v>164.7201374457903</v>
+        <v>164.8267943251702</v>
       </c>
       <c r="M14" t="n">
-        <v>22.99895748465328</v>
+        <v>22.87185749908456</v>
       </c>
       <c r="N14" t="n">
-        <v>22.99895748465328</v>
+        <v>22.87185749908456</v>
       </c>
       <c r="O14" t="n">
-        <v>174.3876797344212</v>
+        <v>173.6910303222926</v>
       </c>
       <c r="P14" t="n">
-        <v>174.3876797344212</v>
+        <v>173.6910303222926</v>
       </c>
       <c r="Q14" t="n">
-        <v>48.86683150086641</v>
+        <v>51.92365020330365</v>
       </c>
       <c r="R14" t="n">
-        <v>48.86683150086641</v>
+        <v>51.92365020330365</v>
       </c>
       <c r="S14" t="n">
-        <v>151.5176318923575</v>
+        <v>148.9023059867162</v>
       </c>
       <c r="T14" t="n">
-        <v>151.5176318923575</v>
+        <v>148.9023059867162</v>
       </c>
     </row>
   </sheetData>
@@ -11564,40 +11564,40 @@
         <v>0.04281234355859342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06747357641388807</v>
+        <v>0.0669601935466555</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06062933119485314</v>
+        <v>0.06014372188103545</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06822674444731303</v>
+        <v>0.0662059616084294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05279903685750997</v>
+        <v>0.05050128586281488</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06997314713634917</v>
+        <v>0.07005671732861352</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06356379967574965</v>
+        <v>0.06365952636012695</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06615851383255511</v>
+        <v>0.06693746933225175</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0506048098353189</v>
+        <v>0.05170022933433427</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06454505706767111</v>
+        <v>0.06497540136324464</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05524304310188755</v>
+        <v>0.05570646400951706</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07033123614637127</v>
+        <v>0.07152260301266344</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05787462003956323</v>
+        <v>0.06021581078286986</v>
       </c>
     </row>
     <row r="3">
@@ -11628,40 +11628,40 @@
         <v>0.04289214058796988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07943394020280209</v>
+        <v>0.07866416215321098</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06915819232629086</v>
+        <v>0.06844104520399084</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07548049306314555</v>
+        <v>0.073116488605693</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05555756105695724</v>
+        <v>0.05272401161944858</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08197861627347101</v>
+        <v>0.08209978287036651</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07265086184123576</v>
+        <v>0.0727815899734362</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07359456278885285</v>
+        <v>0.07428027717781582</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0530502617062339</v>
+        <v>0.05436512747679885</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0769886135315811</v>
+        <v>0.07751447363189273</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06241605881490499</v>
+        <v>0.06303453161429276</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07841409089462403</v>
+        <v>0.08119304718549712</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06226563253857142</v>
+        <v>0.06615938311147281</v>
       </c>
     </row>
     <row r="4">
@@ -11692,40 +11692,40 @@
         <v>0.04674845873139948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03816684041537009</v>
+        <v>0.03817869622363873</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0384001331317497</v>
+        <v>0.03840606712572819</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04401656777144361</v>
+        <v>0.04369401955609856</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04454578361254595</v>
+        <v>0.0442204340344893</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03927501939220835</v>
+        <v>0.0392738553189046</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03943766178905789</v>
+        <v>0.03944565181077837</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04293799362143298</v>
+        <v>0.04339265554262468</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04341203424877605</v>
+        <v>0.04380494364105339</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0360891117821031</v>
+        <v>0.03623986780059495</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03615701147008575</v>
+        <v>0.03633998001687674</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04372614908182246</v>
+        <v>0.04232471279270948</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04391084508743305</v>
+        <v>0.04226952344557491</v>
       </c>
     </row>
     <row r="5">
@@ -11756,40 +11756,40 @@
         <v>0.2492855966251576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07994858300911538</v>
+        <v>0.08131419125284897</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08809564990960463</v>
+        <v>0.08965616044395516</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09475719891168126</v>
+        <v>0.09395148912332779</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1040713050362363</v>
+        <v>0.1083465809315707</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08605690063213149</v>
+        <v>0.0860569006321317</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09051767424352863</v>
+        <v>0.09051767424352859</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08903523783254572</v>
+        <v>0.08928990012458815</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1007655824760506</v>
+        <v>0.09978575631563766</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.07518431113699373</v>
+        <v>0.07518431113699346</v>
       </c>
       <c r="R5" t="n">
-        <v>0.08244103184435898</v>
+        <v>0.08244103184435904</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09464526936562626</v>
+        <v>0.09430728334340613</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1058963710198472</v>
+        <v>0.101934819875687</v>
       </c>
     </row>
     <row r="6">
@@ -11820,16 +11820,16 @@
         <v>0.060780642682189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04802016620199284</v>
+        <v>0.04802016620199653</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04871236647222921</v>
+        <v>0.04871236647109595</v>
       </c>
       <c r="K6" t="n">
-        <v>0.05196700309961114</v>
+        <v>0.05107188446476452</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05380897433866978</v>
+        <v>0.05308805465261082</v>
       </c>
       <c r="M6" t="n">
         <v>0.04871843923865057</v>
@@ -11838,10 +11838,10 @@
         <v>0.0495199417741429</v>
       </c>
       <c r="O6" t="n">
-        <v>0.04986173039019149</v>
+        <v>0.05005484137869237</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0514081836300622</v>
+        <v>0.05161727304742106</v>
       </c>
       <c r="Q6" t="n">
         <v>0.04802016620199451</v>
@@ -11850,10 +11850,10 @@
         <v>0.04869315058936893</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05035068424796455</v>
+        <v>0.05067861830558407</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0516469081487764</v>
+        <v>0.05140231097380459</v>
       </c>
     </row>
     <row r="7">
@@ -11884,16 +11884,16 @@
         <v>0.2739553467247042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0734251049522659</v>
+        <v>0.07391158866491616</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07935639324444178</v>
+        <v>0.07991828201507402</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07984633040516281</v>
+        <v>0.0796058594885366</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09262254804583965</v>
+        <v>0.09425844247966415</v>
       </c>
       <c r="M7" t="n">
         <v>0.07541240248911689</v>
@@ -11902,10 +11902,10 @@
         <v>0.08009498839163048</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07667578988856931</v>
+        <v>0.07688589917602472</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08704250155261591</v>
+        <v>0.08703240858151301</v>
       </c>
       <c r="Q7" t="n">
         <v>0.07133851541418572</v>
@@ -11914,10 +11914,10 @@
         <v>0.07672924271604092</v>
       </c>
       <c r="S7" t="n">
-        <v>0.07991340463527326</v>
+        <v>0.08306060801364633</v>
       </c>
       <c r="T7" t="n">
-        <v>0.09039502168794251</v>
+        <v>0.09150744185253733</v>
       </c>
     </row>
     <row r="8">
@@ -11948,40 +11948,40 @@
         <v>0.008275211055357412</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6562787473422238</v>
+        <v>0.6426281087981773</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4740567158014241</v>
+        <v>0.461339392730676</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5861714249327168</v>
+        <v>0.544250029041602</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2328738170072268</v>
+        <v>0.1826258797106744</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7014040315339942</v>
+        <v>0.7035527046725842</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5359929701901374</v>
+        <v>0.5383112000762122</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5527278206271399</v>
+        <v>0.5648877403249766</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1884113421722705</v>
+        <v>0.2117281376790469</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6129152472675142</v>
+        <v>0.6222404367268696</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3544970224216022</v>
+        <v>0.3654645326516632</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6381935417654612</v>
+        <v>0.6874733671340365</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3518294811389596</v>
+        <v>0.4208781915816431</v>
       </c>
     </row>
     <row r="9">
@@ -12012,40 +12012,40 @@
         <v>0.001551848031945043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3133024410820861</v>
+        <v>0.301727201273953</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2066372291645928</v>
+        <v>0.1976242524464656</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2722880641003618</v>
+        <v>0.2531143639579244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09967729969197189</v>
+        <v>0.07453669139626058</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3201097964012096</v>
+        <v>0.3210809003063052</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2335268736887864</v>
+        <v>0.2345844205731635</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2665576485695799</v>
+        <v>0.2745212963837033</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08117175962521213</v>
+        <v>0.09294652343886053</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.2942045559383859</v>
+        <v>0.2999284136031783</v>
       </c>
       <c r="R9" t="n">
-        <v>0.155475406106118</v>
+        <v>0.1610966470981571</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2948456498389743</v>
+        <v>0.3085351606474778</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1458891338267797</v>
+        <v>0.174526433739593</v>
       </c>
     </row>
     <row r="10">
@@ -12076,40 +12076,40 @@
         <v>0.365271190781277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4173491830590993</v>
+        <v>0.4170240519566233</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4229950549882189</v>
+        <v>0.4226815981926823</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4243704511113188</v>
+        <v>0.4270239772890879</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4283173554603152</v>
+        <v>0.4320095359178633</v>
       </c>
       <c r="M10" t="n">
-        <v>0.423160432689961</v>
+        <v>0.4218217057262653</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4276839585401849</v>
+        <v>0.426504826867046</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4244194697467515</v>
+        <v>0.4235899913880619</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4290951258391187</v>
+        <v>0.4259633929911247</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3939240967617098</v>
+        <v>0.3940337933342934</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3939074643170368</v>
+        <v>0.3940256343366564</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4735132843149955</v>
+        <v>0.4126037603084273</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4755371097784107</v>
+        <v>0.4139272976260843</v>
       </c>
     </row>
     <row r="11">
@@ -12140,40 +12140,40 @@
         <v>0.4217011574688558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3085843965878911</v>
+        <v>0.3081456816301733</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3085843965878911</v>
+        <v>0.3081456816301733</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3280598997839189</v>
+        <v>0.3270283648140877</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3280598997839189</v>
+        <v>0.3270283648140877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3168174133157898</v>
+        <v>0.317128626303157</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3168174133157898</v>
+        <v>0.317128626303157</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3255786895008671</v>
+        <v>0.3265482628962046</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3255786895008671</v>
+        <v>0.3265482628962046</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3113881471176029</v>
+        <v>0.3124979795631308</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3113881471176029</v>
+        <v>0.3124979795631308</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3500227996673361</v>
+        <v>0.3340281353228796</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3500227996673361</v>
+        <v>0.3340281353228796</v>
       </c>
     </row>
     <row r="12">
@@ -12204,40 +12204,40 @@
         <v>0.2339236433475347</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1952624433946395</v>
+        <v>0.1945280061541952</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1952624433946395</v>
+        <v>0.1945280061541952</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2015182492504485</v>
+        <v>0.2012426925366393</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2015182492504485</v>
+        <v>0.2012426925366393</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1922857979524608</v>
+        <v>0.1922225216168501</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1922857979524608</v>
+        <v>0.1922225216168501</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2001640278265688</v>
+        <v>0.2009790121692069</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2001640278265688</v>
+        <v>0.2009790121692069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1943103801249252</v>
+        <v>0.194288305626703</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1943103801249252</v>
+        <v>0.194288305626703</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1865245837502799</v>
+        <v>0.1856145835666895</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1865245837502799</v>
+        <v>0.1856145835666895</v>
       </c>
     </row>
     <row r="13">
@@ -12268,40 +12268,40 @@
         <v>0.6043766960938161</v>
       </c>
       <c r="I13" t="n">
-        <v>0.646025682971737</v>
+        <v>0.645773994487718</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6503807000428432</v>
+        <v>0.6501396759102483</v>
       </c>
       <c r="K13" t="n">
-        <v>0.651437219623901</v>
+        <v>0.6534707164740345</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6544595903952476</v>
+        <v>0.6572743231846679</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6505078267707173</v>
+        <v>0.6494780255915251</v>
       </c>
       <c r="N13" t="n">
-        <v>0.6539755030122952</v>
+        <v>0.6530733702020363</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6514748419906572</v>
+        <v>0.650837914835992</v>
       </c>
       <c r="P13" t="n">
-        <v>0.6550535289876078</v>
+        <v>0.6526587109593532</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6276337281900247</v>
+        <v>0.6277211111108926</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6276204779299643</v>
+        <v>0.6277146121739214</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6881230153940466</v>
+        <v>0.6423424011447693</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6895919879018396</v>
+        <v>0.6433718191109125</v>
       </c>
     </row>
     <row r="14">
@@ -12332,40 +12332,40 @@
         <v>449.4252735672196</v>
       </c>
       <c r="I14" t="n">
-        <v>64.6563424050708</v>
+        <v>64.4216910947254</v>
       </c>
       <c r="J14" t="n">
-        <v>64.6563424050708</v>
+        <v>64.4216910947254</v>
       </c>
       <c r="K14" t="n">
-        <v>146.1902823092215</v>
+        <v>149.0931670668846</v>
       </c>
       <c r="L14" t="n">
-        <v>146.1902823092215</v>
+        <v>149.0931670668846</v>
       </c>
       <c r="M14" t="n">
-        <v>60.4065416245404</v>
+        <v>60.2873248372114</v>
       </c>
       <c r="N14" t="n">
-        <v>60.4065416245404</v>
+        <v>60.2873248372114</v>
       </c>
       <c r="O14" t="n">
-        <v>147.6562773924127</v>
+        <v>144.5345732115545</v>
       </c>
       <c r="P14" t="n">
-        <v>147.6562773924127</v>
+        <v>144.5345732115545</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.19057748127815</v>
+        <v>87.84303046828474</v>
       </c>
       <c r="R14" t="n">
-        <v>88.19057748127815</v>
+        <v>87.84303046828474</v>
       </c>
       <c r="S14" t="n">
-        <v>117.6709976346168</v>
+        <v>106.6467766350208</v>
       </c>
       <c r="T14" t="n">
-        <v>117.6709976346168</v>
+        <v>106.6467766350208</v>
       </c>
     </row>
   </sheetData>
@@ -12512,40 +12512,40 @@
         <v>0.04281234355859342</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0667543370236634</v>
+        <v>0.06686748175401847</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05878556170201099</v>
+        <v>0.05885017051050312</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07115552764719868</v>
+        <v>0.07017025062749949</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05561031665554395</v>
+        <v>0.05486094242313477</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06648270346025908</v>
+        <v>0.06636880873408324</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05906545900110438</v>
+        <v>0.05901444425337377</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06945375425169109</v>
+        <v>0.06919946382413111</v>
       </c>
       <c r="P2" t="n">
-        <v>0.05375670879015293</v>
+        <v>0.05352045955083828</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.06819210439603918</v>
+        <v>0.06769530602851148</v>
       </c>
       <c r="R2" t="n">
-        <v>0.05932828882568675</v>
+        <v>0.05783169414888567</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07077569452836374</v>
+        <v>0.07058252669817122</v>
       </c>
       <c r="T2" t="n">
-        <v>0.05695350234325258</v>
+        <v>0.05689646678441984</v>
       </c>
     </row>
     <row r="3">
@@ -12576,40 +12576,40 @@
         <v>0.04289214058796988</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08128298450093385</v>
+        <v>0.08145003338823797</v>
       </c>
       <c r="J3" t="n">
-        <v>0.06834003197825757</v>
+        <v>0.06844859856476654</v>
       </c>
       <c r="K3" t="n">
-        <v>0.08278552298127356</v>
+        <v>0.08137457572274066</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06068912138529527</v>
+        <v>0.05971528624827779</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08021197082112877</v>
+        <v>0.080027114366747</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06844447943275095</v>
+        <v>0.06836768313112149</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08020999810398233</v>
+        <v>0.07984246623698954</v>
       </c>
       <c r="P3" t="n">
-        <v>0.05809493350087132</v>
+        <v>0.05776944315888887</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.08462827126321565</v>
+        <v>0.08370986420386931</v>
       </c>
       <c r="R3" t="n">
-        <v>0.06992679043094226</v>
+        <v>0.0673543060266576</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08089395422567336</v>
+        <v>0.08069535816960247</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06197678494379074</v>
+        <v>0.06193755945368218</v>
       </c>
     </row>
     <row r="4">
@@ -12640,40 +12640,40 @@
         <v>0.04674845873139948</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03530687564368002</v>
+        <v>0.03531923737050244</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03560034602867043</v>
+        <v>0.03559182938366862</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04014183648973268</v>
+        <v>0.04016948552588982</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04070988215384854</v>
+        <v>0.04055872263808386</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03590223040614099</v>
+        <v>0.03590792379588539</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03606406209610364</v>
+        <v>0.03605992966485463</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04033823934278739</v>
+        <v>0.04035122290927123</v>
       </c>
       <c r="P4" t="n">
-        <v>0.04077890934871746</v>
+        <v>0.04077569802760155</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03442935127967104</v>
+        <v>0.0345166730470188</v>
       </c>
       <c r="R4" t="n">
-        <v>0.03465915306502813</v>
+        <v>0.03485030229816374</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04155888652178127</v>
+        <v>0.04148991410268626</v>
       </c>
       <c r="T4" t="n">
-        <v>0.04190281766027548</v>
+        <v>0.04182221861896633</v>
       </c>
     </row>
     <row r="5">
@@ -12704,40 +12704,40 @@
         <v>0.2492855966251576</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05562461585844496</v>
+        <v>0.05548439151308564</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06348076113671312</v>
+        <v>0.06336111990490204</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05931517727853682</v>
+        <v>0.05869581767009043</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06568507615538666</v>
+        <v>0.06604093577860688</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05735000507870727</v>
+        <v>0.05735000507870702</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0649677327089364</v>
+        <v>0.06496773270893653</v>
       </c>
       <c r="O5" t="n">
-        <v>0.058495403478756</v>
+        <v>0.05849540347875611</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07042137608959066</v>
+        <v>0.07042137608959058</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.05187900690962131</v>
+        <v>0.05188166989525363</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0588835262942395</v>
+        <v>0.05884699036187551</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05924177512428287</v>
+        <v>0.05924177512428266</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0740339864826421</v>
+        <v>0.07403398648264239</v>
       </c>
     </row>
     <row r="6">
@@ -12768,16 +12768,16 @@
         <v>0.060780642682189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02821228362034443</v>
+        <v>0.02821226698727885</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0294845612895942</v>
+        <v>0.02948455235321477</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0314194553341518</v>
+        <v>0.03135279876784138</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03266210282179829</v>
+        <v>0.03259240912106048</v>
       </c>
       <c r="M6" t="n">
         <v>0.02962938890960983</v>
@@ -12792,10 +12792,10 @@
         <v>0.03456342232119142</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0270585312935967</v>
+        <v>0.02705853058896851</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02821797411882143</v>
+        <v>0.02821797339004247</v>
       </c>
       <c r="S6" t="n">
         <v>0.03061639896751215</v>
@@ -12832,16 +12832,16 @@
         <v>0.2739553467247042</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0551098377660096</v>
+        <v>0.05492949153737684</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06395760835797326</v>
+        <v>0.06354727437639247</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05107614181185827</v>
+        <v>0.05095907307743045</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06462644714822224</v>
+        <v>0.06412521720242507</v>
       </c>
       <c r="M7" t="n">
         <v>0.05666540281704147</v>
@@ -12856,10 +12856,10 @@
         <v>0.07103833226387242</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04747101715156476</v>
+        <v>0.04689370731483925</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05547208949047092</v>
+        <v>0.05392249692744283</v>
       </c>
       <c r="S7" t="n">
         <v>0.05953555398357831</v>
@@ -12896,40 +12896,40 @@
         <v>0.008275211055357412</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6890682447553207</v>
+        <v>0.692030558348161</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4595481036267771</v>
+        <v>0.4614733380903762</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7157130805031481</v>
+        <v>0.6906924514514671</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3238728721846492</v>
+        <v>0.3066036457316754</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6700757304500428</v>
+        <v>0.6667976314673036</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4614002926426786</v>
+        <v>0.4600384474255799</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6700407478355994</v>
+        <v>0.6635232267496163</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2778695844260209</v>
+        <v>0.2720975946812619</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.748390929316602</v>
+        <v>0.7321046208019636</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4876864301298702</v>
+        <v>0.4420680148194581</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6821694878044144</v>
+        <v>0.6786477415307488</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3467072850556047</v>
+        <v>0.3460116910626745</v>
       </c>
     </row>
     <row r="9">
@@ -12960,40 +12960,40 @@
         <v>0.001551848031945043</v>
       </c>
       <c r="I9" t="n">
-        <v>0.437375547716099</v>
+        <v>0.4405201335257601</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2577170029625081</v>
+        <v>0.2592233271614565</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4843623296649272</v>
+        <v>0.472687178281851</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2007278857114375</v>
+        <v>0.1882991523430934</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4194805777464969</v>
+        <v>0.4174946193142451</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2561266664418644</v>
+        <v>0.2553414343642851</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4620579130705308</v>
+        <v>0.4577107265834356</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1609059524718578</v>
+        <v>0.1575511580552581</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.496667452498636</v>
+        <v>0.4870663547154802</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2870547960247058</v>
+        <v>0.2618010514737942</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4785508920488901</v>
+        <v>0.4752902228709802</v>
       </c>
       <c r="T9" t="n">
-        <v>0.196234362586707</v>
+        <v>0.1954639656171183</v>
       </c>
     </row>
     <row r="10">
@@ -13024,40 +13024,40 @@
         <v>0.365271190781277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03703821724933642</v>
+        <v>0.03713221122483668</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03761266481189485</v>
+        <v>0.03760999285218924</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03280059753700615</v>
+        <v>0.03575584718795888</v>
       </c>
       <c r="L10" t="n">
-        <v>0.03454302496907291</v>
+        <v>0.03656493929156746</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03530874449369925</v>
+        <v>0.03564568547329028</v>
       </c>
       <c r="N10" t="n">
-        <v>0.03630046467661652</v>
+        <v>0.03653985318571895</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03538454249827316</v>
+        <v>0.03546832108561537</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03574880969032057</v>
+        <v>0.03569665902837782</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.03132125457100143</v>
+        <v>0.03043539215092272</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03270628336705328</v>
+        <v>0.03148205800263837</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03945510825403897</v>
+        <v>0.03949096390006535</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04208415369525242</v>
+        <v>0.04243896768953881</v>
       </c>
     </row>
     <row r="11">
@@ -13088,40 +13088,40 @@
         <v>0.4217011574688558</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3067344246288296</v>
+        <v>0.3067828139424297</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3067344246288296</v>
+        <v>0.3067828139424297</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3407167553674957</v>
+        <v>0.3417808865052032</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3407167553674957</v>
+        <v>0.3417808865052032</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3024221271413098</v>
+        <v>0.3021695263555768</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3024221271413098</v>
+        <v>0.3021695263555768</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3394405094527765</v>
+        <v>0.3391098772093696</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3394405094527765</v>
+        <v>0.3391098772093696</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3233105443212814</v>
+        <v>0.3236110440184905</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3233105443212814</v>
+        <v>0.3236110440184905</v>
       </c>
       <c r="S11" t="n">
-        <v>0.370574886630037</v>
+        <v>0.3701111060417811</v>
       </c>
       <c r="T11" t="n">
-        <v>0.370574886630037</v>
+        <v>0.3701111060417811</v>
       </c>
     </row>
     <row r="12">
@@ -13152,40 +13152,40 @@
         <v>0.2339236433475347</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2014915625443094</v>
+        <v>0.2014257523407955</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2014915625443094</v>
+        <v>0.2014257523407955</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2007687469740302</v>
+        <v>0.200074968902889</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2007687469740302</v>
+        <v>0.200074968902889</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2048515029264103</v>
+        <v>0.2048030710725523</v>
       </c>
       <c r="N12" t="n">
-        <v>0.2048515029264103</v>
+        <v>0.2048030710725523</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2006484030834543</v>
+        <v>0.2006327710106813</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2006484030834543</v>
+        <v>0.2006327710106813</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2001382508760675</v>
+        <v>0.199908768290936</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2001382508760675</v>
+        <v>0.199908768290936</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2069524543249557</v>
+        <v>0.2070507250199523</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2069524543249557</v>
+        <v>0.2070507250199523</v>
       </c>
     </row>
     <row r="13">
@@ -13216,40 +13216,40 @@
         <v>0.6043766960938161</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1924531559869483</v>
+        <v>0.1926972008744204</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1939398484373308</v>
+        <v>0.1939329596850139</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1811093524283222</v>
+        <v>0.189092165855593</v>
       </c>
       <c r="L13" t="n">
-        <v>0.185857539446407</v>
+        <v>0.1912196101124765</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1879062119614442</v>
+        <v>0.1888006500870439</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1905268082885357</v>
+        <v>0.1911540038443325</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1881077948897201</v>
+        <v>0.1883303509411467</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1890735562957458</v>
+        <v>0.1889355949215976</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1769781189045742</v>
+        <v>0.1744574221720669</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1808487859153428</v>
+        <v>0.1774318404420081</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1986330995932929</v>
+        <v>0.1987233350667847</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2051442265706064</v>
+        <v>0.2060072030040183</v>
       </c>
     </row>
     <row r="14">
@@ -13280,40 +13280,40 @@
         <v>449.4252735672196</v>
       </c>
       <c r="I14" t="n">
-        <v>75.15351948440511</v>
+        <v>75.60546972654137</v>
       </c>
       <c r="J14" t="n">
-        <v>75.15351948440511</v>
+        <v>75.60546972654137</v>
       </c>
       <c r="K14" t="n">
-        <v>146.5311041286916</v>
+        <v>144.4153677204015</v>
       </c>
       <c r="L14" t="n">
-        <v>146.5311041286916</v>
+        <v>144.4153677204015</v>
       </c>
       <c r="M14" t="n">
-        <v>69.95174418680006</v>
+        <v>69.36365451128424</v>
       </c>
       <c r="N14" t="n">
-        <v>69.95174418680006</v>
+        <v>69.36365451128424</v>
       </c>
       <c r="O14" t="n">
-        <v>148.1894726021721</v>
+        <v>148.050503658074</v>
       </c>
       <c r="P14" t="n">
-        <v>148.1894726021721</v>
+        <v>148.050503658074</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.52338911910857</v>
+        <v>93.02444412515095</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52338911910857</v>
+        <v>93.02444412515095</v>
       </c>
       <c r="S14" t="n">
-        <v>130.235209867425</v>
+        <v>128.9664176402813</v>
       </c>
       <c r="T14" t="n">
-        <v>130.235209867425</v>
+        <v>128.9664176402813</v>
       </c>
     </row>
   </sheetData>

--- a/Performance Measures.xlsx
+++ b/Performance Measures.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="P1 - Historical" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P1 - Synthetic" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="P2 - Historical" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="P2 - Synthetic" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="P3 - Historical" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="P3 - Synthetic" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="P4 - Historical" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="P4 - Synthetic" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Conservative" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Aggressive" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Benchmark" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1 - Historical" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P1 - Synthetic" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2 - Historical" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P2 - Synthetic" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3 - Historical" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P3 - Synthetic" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4 - Historical" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P4 - Synthetic" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Conservative" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aggressive" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -1303,7 +1303,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -1635,7 +1635,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -2299,7 +2299,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -2797,7 +2797,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -3913,7 +3913,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -4079,7 +4079,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -4743,7 +4743,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -5855,7 +5855,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -5919,7 +5919,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -6175,7 +6175,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -6303,7 +6303,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -6431,7 +6431,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -6495,7 +6495,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -6803,7 +6803,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -6995,7 +6995,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -7123,7 +7123,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -7187,7 +7187,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -7251,7 +7251,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -7443,7 +7443,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -7751,7 +7751,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -7879,7 +7879,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -8135,7 +8135,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -8327,7 +8327,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -9275,7 +9275,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -9647,7 +9647,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -9711,7 +9711,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -9775,7 +9775,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -9839,7 +9839,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -9903,7 +9903,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -9967,7 +9967,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -10223,7 +10223,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -10287,7 +10287,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -10595,7 +10595,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -10659,7 +10659,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -10723,7 +10723,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -10787,7 +10787,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -10851,7 +10851,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -10979,7 +10979,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -11043,7 +11043,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -11235,7 +11235,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -11543,7 +11543,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -11799,7 +11799,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -11863,7 +11863,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -11927,7 +11927,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -11991,7 +11991,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -12119,7 +12119,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -12183,7 +12183,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C2" t="n">
         <v>0.07511285024057157</v>
@@ -12555,7 +12555,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.049341</v>
+        <v>0.04934122451384315</v>
       </c>
       <c r="C3" t="n">
         <v>0.07811978622012136</v>
@@ -12619,7 +12619,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.056391</v>
+        <v>0.05639135833150058</v>
       </c>
       <c r="C4" t="n">
         <v>0.0516408737109758</v>
@@ -12683,7 +12683,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.222035</v>
+        <v>0.2220354084037478</v>
       </c>
       <c r="C5" t="n">
         <v>0.152312370186105</v>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.072119</v>
+        <v>0.07211936324133239</v>
       </c>
       <c r="C6" t="n">
         <v>0.06358609510140846</v>
@@ -12811,7 +12811,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.242259</v>
+        <v>0.2422591459587894</v>
       </c>
       <c r="C7" t="n">
         <v>0.1604704890428219</v>
@@ -12875,7 +12875,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122638</v>
+        <v>0.1226381935528146</v>
       </c>
       <c r="C8" t="n">
         <v>0.6329745741220049</v>
@@ -12939,7 +12939,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.031147</v>
+        <v>0.03114698852531287</v>
       </c>
       <c r="C9" t="n">
         <v>0.2146073887797402</v>
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.647835</v>
+        <v>0.6478348465883126</v>
       </c>
       <c r="C11" t="n">
         <v>0.5554946431602711</v>
@@ -13131,7 +13131,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.360859</v>
+        <v>0.3608590741259927</v>
       </c>
       <c r="C12" t="n">
         <v>0.2559630748399553</v>
